--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6927,28 +6927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1731.527034005927</v>
+        <v>1835.127447551729</v>
       </c>
       <c r="AB2" t="n">
-        <v>2369.151677508343</v>
+        <v>2510.902333849383</v>
       </c>
       <c r="AC2" t="n">
-        <v>2143.04316653221</v>
+        <v>2271.265339180357</v>
       </c>
       <c r="AD2" t="n">
-        <v>1731527.034005927</v>
+        <v>1835127.447551729</v>
       </c>
       <c r="AE2" t="n">
-        <v>2369151.677508343</v>
+        <v>2510902.333849384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289764223575186e-06</v>
+        <v>1.859407183860771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.56458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2143043.16653221</v>
+        <v>2271265.339180357</v>
       </c>
     </row>
     <row r="3">
@@ -7033,28 +7033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.9983861016457</v>
+        <v>674.3466198154586</v>
       </c>
       <c r="AB3" t="n">
-        <v>840.0996795613132</v>
+        <v>922.6707953047224</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.9217452312866</v>
+        <v>834.6123895774334</v>
       </c>
       <c r="AD3" t="n">
-        <v>613998.3861016457</v>
+        <v>674346.6198154585</v>
       </c>
       <c r="AE3" t="n">
-        <v>840099.6795613132</v>
+        <v>922670.7953047225</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412636662084202e-06</v>
+        <v>3.478212420166205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>759921.7452312866</v>
+        <v>834612.3895774335</v>
       </c>
     </row>
     <row r="4">
@@ -7139,28 +7139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.3770289468263</v>
+        <v>531.0918948651557</v>
       </c>
       <c r="AB4" t="n">
-        <v>655.904799626971</v>
+        <v>726.6633606752935</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.3061661187402</v>
+        <v>657.3116294108748</v>
       </c>
       <c r="AD4" t="n">
-        <v>479377.0289468264</v>
+        <v>531091.8948651557</v>
       </c>
       <c r="AE4" t="n">
-        <v>655904.799626971</v>
+        <v>726663.3606752935</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.824614285359433e-06</v>
+        <v>4.072145899096509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>593306.1661187402</v>
+        <v>657311.6294108748</v>
       </c>
     </row>
     <row r="5">
@@ -7245,28 +7245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>434.7640239199529</v>
+        <v>477.8456115513498</v>
       </c>
       <c r="AB5" t="n">
-        <v>594.8633179623287</v>
+        <v>653.8094467851129</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.0903977919138</v>
+        <v>591.4107908112628</v>
       </c>
       <c r="AD5" t="n">
-        <v>434764.0239199529</v>
+        <v>477845.6115513498</v>
       </c>
       <c r="AE5" t="n">
-        <v>594863.3179623287</v>
+        <v>653809.4467851128</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.038918509364857e-06</v>
+        <v>4.381100672661884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.00208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>538090.3977919138</v>
+        <v>591410.7908112628</v>
       </c>
     </row>
     <row r="6">
@@ -7351,28 +7351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>401.6116454394427</v>
+        <v>444.7784844168601</v>
       </c>
       <c r="AB6" t="n">
-        <v>549.5027711455797</v>
+        <v>608.565544621013</v>
       </c>
       <c r="AC6" t="n">
-        <v>497.0589978994278</v>
+        <v>550.4849031694891</v>
       </c>
       <c r="AD6" t="n">
-        <v>401611.6454394427</v>
+        <v>444778.48441686</v>
       </c>
       <c r="AE6" t="n">
-        <v>549502.7711455796</v>
+        <v>608565.544621013</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.174299258089862e-06</v>
+        <v>4.576274280469008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.575000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>497058.9978994278</v>
+        <v>550484.9031694891</v>
       </c>
     </row>
     <row r="7">
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>385.8928039401335</v>
+        <v>428.8890507169587</v>
       </c>
       <c r="AB7" t="n">
-        <v>527.9955587398803</v>
+        <v>586.8249204404667</v>
       </c>
       <c r="AC7" t="n">
-        <v>477.6044036601663</v>
+        <v>530.8191736475765</v>
       </c>
       <c r="AD7" t="n">
-        <v>385892.8039401335</v>
+        <v>428889.0507169587</v>
       </c>
       <c r="AE7" t="n">
-        <v>527995.5587398802</v>
+        <v>586824.9204404667</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.26781117612082e-06</v>
+        <v>4.711087084999577e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.299999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>477604.4036601663</v>
+        <v>530819.1736475765</v>
       </c>
     </row>
     <row r="8">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.8032491693618</v>
+        <v>410.3368098598468</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.1905847827691</v>
+        <v>561.4409260326642</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.116957042119</v>
+        <v>507.8577920393946</v>
       </c>
       <c r="AD8" t="n">
-        <v>375803.2491693618</v>
+        <v>410336.8098598468</v>
       </c>
       <c r="AE8" t="n">
-        <v>514190.584782769</v>
+        <v>561440.9260326641</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.329520288955602e-06</v>
+        <v>4.800050917006489e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.127083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>465116.957042119</v>
+        <v>507857.7920393946</v>
       </c>
     </row>
     <row r="9">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>359.0554935666086</v>
+        <v>402.1369916894544</v>
       </c>
       <c r="AB9" t="n">
-        <v>491.275566708251</v>
+        <v>550.2215730614867</v>
       </c>
       <c r="AC9" t="n">
-        <v>444.3889161312031</v>
+        <v>497.7091983693255</v>
       </c>
       <c r="AD9" t="n">
-        <v>359055.4935666086</v>
+        <v>402136.9916894544</v>
       </c>
       <c r="AE9" t="n">
-        <v>491275.566708251</v>
+        <v>550221.5730614867</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.3808716074375e-06</v>
+        <v>4.874082285485053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.989583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>444388.9161312031</v>
+        <v>497709.1983693255</v>
       </c>
     </row>
     <row r="10">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>351.8813719385428</v>
+        <v>394.9628700613886</v>
       </c>
       <c r="AB10" t="n">
-        <v>481.4596169968225</v>
+        <v>540.4056233500581</v>
       </c>
       <c r="AC10" t="n">
-        <v>435.5097868834615</v>
+        <v>488.8300691215838</v>
       </c>
       <c r="AD10" t="n">
-        <v>351881.3719385428</v>
+        <v>394962.8700613886</v>
       </c>
       <c r="AE10" t="n">
-        <v>481459.6169968225</v>
+        <v>540405.6233500581</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.424345166834108e-06</v>
+        <v>4.936756569026566e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.875</v>
       </c>
       <c r="AH10" t="n">
-        <v>435509.7868834615</v>
+        <v>488830.0691215838</v>
       </c>
     </row>
     <row r="11">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>346.7475798502907</v>
+        <v>389.8290779731365</v>
       </c>
       <c r="AB11" t="n">
-        <v>474.4353361747537</v>
+        <v>533.3813425279894</v>
       </c>
       <c r="AC11" t="n">
-        <v>429.1558935644108</v>
+        <v>482.4761758025333</v>
       </c>
       <c r="AD11" t="n">
-        <v>346747.5798502907</v>
+        <v>389829.0779731364</v>
       </c>
       <c r="AE11" t="n">
-        <v>474435.3361747537</v>
+        <v>533381.3425279894</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.456439740885294e-06</v>
+        <v>4.983026174325669e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.793750000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>429155.8935644108</v>
+        <v>482476.1758025333</v>
       </c>
     </row>
     <row r="12">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>342.8641388815327</v>
+        <v>385.9456370043785</v>
       </c>
       <c r="AB12" t="n">
-        <v>469.1218409159751</v>
+        <v>528.0678472692107</v>
       </c>
       <c r="AC12" t="n">
-        <v>424.3495108355926</v>
+        <v>477.6697930737151</v>
       </c>
       <c r="AD12" t="n">
-        <v>342864.1388815327</v>
+        <v>385945.6370043785</v>
       </c>
       <c r="AE12" t="n">
-        <v>469121.8409159751</v>
+        <v>528067.8472692107</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.477447098446071e-06</v>
+        <v>5.013311734157809e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.739583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>424349.5108355926</v>
+        <v>477669.7930737151</v>
       </c>
     </row>
     <row r="13">
@@ -8093,28 +8093,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>338.8050457380667</v>
+        <v>381.8865438609126</v>
       </c>
       <c r="AB13" t="n">
-        <v>463.5680106025338</v>
+        <v>522.5140169557695</v>
       </c>
       <c r="AC13" t="n">
-        <v>419.3257302924163</v>
+        <v>472.6460125305388</v>
       </c>
       <c r="AD13" t="n">
-        <v>338805.0457380667</v>
+        <v>381886.5438609126</v>
       </c>
       <c r="AE13" t="n">
-        <v>463568.0106025338</v>
+        <v>522514.0169557695</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.499913300281901e-06</v>
+        <v>5.045700457867181e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.683333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>419325.7302924164</v>
+        <v>472646.0125305388</v>
       </c>
     </row>
     <row r="14">
@@ -8199,28 +8199,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>335.1627369575249</v>
+        <v>378.2442350803708</v>
       </c>
       <c r="AB14" t="n">
-        <v>458.5844430416739</v>
+        <v>517.5304493949096</v>
       </c>
       <c r="AC14" t="n">
-        <v>414.8177874250839</v>
+        <v>468.1380696632064</v>
       </c>
       <c r="AD14" t="n">
-        <v>335162.736957525</v>
+        <v>378244.2350803708</v>
       </c>
       <c r="AE14" t="n">
-        <v>458584.4430416739</v>
+        <v>517530.4493949097</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.52179596440771e-06</v>
+        <v>5.07724791602566e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.629166666666668</v>
       </c>
       <c r="AH14" t="n">
-        <v>414817.7874250839</v>
+        <v>468138.0696632063</v>
       </c>
     </row>
     <row r="15">
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>332.8107980196083</v>
+        <v>375.8922961424541</v>
       </c>
       <c r="AB15" t="n">
-        <v>455.3664164265937</v>
+        <v>514.3124227798293</v>
       </c>
       <c r="AC15" t="n">
-        <v>411.9068847536182</v>
+        <v>465.2271669917407</v>
       </c>
       <c r="AD15" t="n">
-        <v>332810.7980196084</v>
+        <v>375892.2961424541</v>
       </c>
       <c r="AE15" t="n">
-        <v>455366.4164265937</v>
+        <v>514312.4227798292</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.533029065325626e-06</v>
+        <v>5.093442277880347e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.602083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>411906.8847536182</v>
+        <v>465227.1669917406</v>
       </c>
     </row>
     <row r="16">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>329.3499831673493</v>
+        <v>363.968795203855</v>
       </c>
       <c r="AB16" t="n">
-        <v>450.6311768653572</v>
+        <v>497.9981627679015</v>
       </c>
       <c r="AC16" t="n">
-        <v>407.6235698101557</v>
+        <v>450.4699170581434</v>
       </c>
       <c r="AD16" t="n">
-        <v>329349.9831673493</v>
+        <v>363968.795203855</v>
       </c>
       <c r="AE16" t="n">
-        <v>450631.1768653572</v>
+        <v>497998.1627679016</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.549514005633735e-06</v>
+        <v>5.117208029693068e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.5625</v>
       </c>
       <c r="AH16" t="n">
-        <v>407623.5698101557</v>
+        <v>450469.9170581434</v>
       </c>
     </row>
     <row r="17">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>326.4132766026777</v>
+        <v>361.0320886391834</v>
       </c>
       <c r="AB17" t="n">
-        <v>446.6130453852237</v>
+        <v>493.980031287768</v>
       </c>
       <c r="AC17" t="n">
-        <v>403.9889231590031</v>
+        <v>446.835270406991</v>
       </c>
       <c r="AD17" t="n">
-        <v>326413.2766026778</v>
+        <v>361032.0886391834</v>
       </c>
       <c r="AE17" t="n">
-        <v>446613.0453852237</v>
+        <v>493980.031287768</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.565707177086834e-06</v>
+        <v>5.140553148730342e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.522916666666665</v>
       </c>
       <c r="AH17" t="n">
-        <v>403988.9231590031</v>
+        <v>446835.270406991</v>
       </c>
     </row>
     <row r="18">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>324.6166352986056</v>
+        <v>359.2354473351111</v>
       </c>
       <c r="AB18" t="n">
-        <v>444.1548014907718</v>
+        <v>491.5217873933163</v>
       </c>
       <c r="AC18" t="n">
-        <v>401.7652906116708</v>
+        <v>444.6116378596586</v>
       </c>
       <c r="AD18" t="n">
-        <v>324616.6352986056</v>
+        <v>359235.4473351112</v>
       </c>
       <c r="AE18" t="n">
-        <v>444154.8014907718</v>
+        <v>491521.7873933163</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.570813132049523e-06</v>
+        <v>5.147914222300655e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.510416666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>401765.2906116708</v>
+        <v>444611.6378596586</v>
       </c>
     </row>
     <row r="19">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>321.114423025292</v>
+        <v>355.5626428612054</v>
       </c>
       <c r="AB19" t="n">
-        <v>439.3629201517232</v>
+        <v>486.4964942794206</v>
       </c>
       <c r="AC19" t="n">
-        <v>397.4307397021733</v>
+        <v>440.06595166751</v>
       </c>
       <c r="AD19" t="n">
-        <v>321114.423025292</v>
+        <v>355562.6428612054</v>
       </c>
       <c r="AE19" t="n">
-        <v>439362.9201517232</v>
+        <v>486496.4942794206</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.588173378922665e-06</v>
+        <v>5.172941872439715e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.470833333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>397430.7397021733</v>
+        <v>440065.95166751</v>
       </c>
     </row>
     <row r="20">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>319.1802997979912</v>
+        <v>353.6285196339045</v>
       </c>
       <c r="AB20" t="n">
-        <v>436.7165674246356</v>
+        <v>483.8501415523329</v>
       </c>
       <c r="AC20" t="n">
-        <v>395.0369511651796</v>
+        <v>437.6721631305163</v>
       </c>
       <c r="AD20" t="n">
-        <v>319180.2997979912</v>
+        <v>353628.5196339046</v>
       </c>
       <c r="AE20" t="n">
-        <v>436716.5674246356</v>
+        <v>483850.1415523329</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.595467600297934e-06</v>
+        <v>5.183457691825874e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.452083333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>395036.9511651795</v>
+        <v>437672.1631305162</v>
       </c>
     </row>
     <row r="21">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>317.5040180869307</v>
+        <v>351.9522379228441</v>
       </c>
       <c r="AB21" t="n">
-        <v>434.4230048352328</v>
+        <v>481.5565789629302</v>
       </c>
       <c r="AC21" t="n">
-        <v>392.962282970274</v>
+        <v>435.5974949356109</v>
       </c>
       <c r="AD21" t="n">
-        <v>317504.0180869307</v>
+        <v>351952.2379228441</v>
       </c>
       <c r="AE21" t="n">
-        <v>434423.0048352328</v>
+        <v>481556.5789629302</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.600573555260623e-06</v>
+        <v>5.190818765396186e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.441666666666668</v>
       </c>
       <c r="AH21" t="n">
-        <v>392962.282970274</v>
+        <v>435597.4949356109</v>
       </c>
     </row>
     <row r="22">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>314.9263337698499</v>
+        <v>349.3745536057632</v>
       </c>
       <c r="AB22" t="n">
-        <v>430.8961034331965</v>
+        <v>478.029677560894</v>
       </c>
       <c r="AC22" t="n">
-        <v>389.7719840880109</v>
+        <v>432.4071960533477</v>
       </c>
       <c r="AD22" t="n">
-        <v>314926.3337698499</v>
+        <v>349374.5536057632</v>
       </c>
       <c r="AE22" t="n">
-        <v>430896.1034331965</v>
+        <v>478029.6775608939</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.610639580758495e-06</v>
+        <v>5.205330596149087e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>389771.9840880109</v>
+        <v>432407.1960533477</v>
       </c>
     </row>
     <row r="23">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>312.5451290965242</v>
+        <v>346.9933489324376</v>
       </c>
       <c r="AB23" t="n">
-        <v>427.6380341478165</v>
+        <v>474.7716082755139</v>
       </c>
       <c r="AC23" t="n">
-        <v>386.8248603624985</v>
+        <v>429.4600723278353</v>
       </c>
       <c r="AD23" t="n">
-        <v>312545.1290965242</v>
+        <v>346993.3489324376</v>
       </c>
       <c r="AE23" t="n">
-        <v>427638.0341478165</v>
+        <v>474771.6082755139</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.617350264423743e-06</v>
+        <v>5.215005149984353e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.402083333333332</v>
       </c>
       <c r="AH23" t="n">
-        <v>386824.8603624985</v>
+        <v>429460.0723278353</v>
       </c>
     </row>
     <row r="24">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>311.7946315711201</v>
+        <v>346.2428514070334</v>
       </c>
       <c r="AB24" t="n">
-        <v>426.6111703239444</v>
+        <v>473.7447444516418</v>
       </c>
       <c r="AC24" t="n">
-        <v>385.8959989807644</v>
+        <v>428.5312109461012</v>
       </c>
       <c r="AD24" t="n">
-        <v>311794.6315711201</v>
+        <v>346242.8514070334</v>
       </c>
       <c r="AE24" t="n">
-        <v>426611.1703239444</v>
+        <v>473744.7444516418</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.615745535721184e-06</v>
+        <v>5.212691669719398e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.40625</v>
       </c>
       <c r="AH24" t="n">
-        <v>385895.9989807644</v>
+        <v>428531.2109461012</v>
       </c>
     </row>
     <row r="25">
@@ -9365,28 +9365,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>310.1216485120738</v>
+        <v>344.5698683479872</v>
       </c>
       <c r="AB25" t="n">
-        <v>424.3221210957538</v>
+        <v>471.4556952234512</v>
       </c>
       <c r="AC25" t="n">
-        <v>383.8254133982115</v>
+        <v>426.4606253635483</v>
       </c>
       <c r="AD25" t="n">
-        <v>310121.6485120738</v>
+        <v>344569.8683479872</v>
       </c>
       <c r="AE25" t="n">
-        <v>424322.1210957538</v>
+        <v>471455.6952234512</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.623623294806476e-06</v>
+        <v>5.224048754656451e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.387499999999999</v>
       </c>
       <c r="AH25" t="n">
-        <v>383825.4133982115</v>
+        <v>426460.6253635483</v>
       </c>
     </row>
     <row r="26">
@@ -9471,28 +9471,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>307.4683427967123</v>
+        <v>341.9165626326256</v>
       </c>
       <c r="AB26" t="n">
-        <v>420.6917511604094</v>
+        <v>467.8253252881067</v>
       </c>
       <c r="AC26" t="n">
-        <v>380.5415208742401</v>
+        <v>423.1767328395769</v>
       </c>
       <c r="AD26" t="n">
-        <v>307468.3427967123</v>
+        <v>341916.5626326256</v>
       </c>
       <c r="AE26" t="n">
-        <v>420691.7511604094</v>
+        <v>467825.3252881067</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.633251667021831e-06</v>
+        <v>5.237929636246181e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>8.364583333333334</v>
       </c>
       <c r="AH26" t="n">
-        <v>380541.5208742401</v>
+        <v>423176.7328395769</v>
       </c>
     </row>
     <row r="27">
@@ -9577,28 +9577,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>306.8641217415239</v>
+        <v>341.3123415774373</v>
       </c>
       <c r="AB27" t="n">
-        <v>419.8650292563491</v>
+        <v>466.9986033840465</v>
       </c>
       <c r="AC27" t="n">
-        <v>379.793700148392</v>
+        <v>422.4289121137286</v>
       </c>
       <c r="AD27" t="n">
-        <v>306864.121741524</v>
+        <v>341312.3415774374</v>
       </c>
       <c r="AE27" t="n">
-        <v>419865.0292563491</v>
+        <v>466998.6033840465</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.630917516181745e-06</v>
+        <v>5.234564574042611e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.370833333333334</v>
       </c>
       <c r="AH27" t="n">
-        <v>379793.7001483919</v>
+        <v>422428.9121137286</v>
       </c>
     </row>
     <row r="28">
@@ -9683,28 +9683,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>305.1255792174056</v>
+        <v>339.5737990533189</v>
       </c>
       <c r="AB28" t="n">
-        <v>417.4862786757673</v>
+        <v>464.6198528034647</v>
       </c>
       <c r="AC28" t="n">
-        <v>377.6419741846235</v>
+        <v>420.2771861499602</v>
       </c>
       <c r="AD28" t="n">
-        <v>305125.5792174056</v>
+        <v>339573.7990533189</v>
       </c>
       <c r="AE28" t="n">
-        <v>417486.2786757672</v>
+        <v>464619.8528034646</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.639378812977058e-06</v>
+        <v>5.246762924530555e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8.352083333333335</v>
       </c>
       <c r="AH28" t="n">
-        <v>377641.9741846235</v>
+        <v>420277.1861499603</v>
       </c>
     </row>
     <row r="29">
@@ -9789,28 +9789,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>306.0414325014462</v>
+        <v>340.4896523373596</v>
       </c>
       <c r="AB29" t="n">
-        <v>418.739389543587</v>
+        <v>465.8729636712844</v>
       </c>
       <c r="AC29" t="n">
-        <v>378.7754899099706</v>
+        <v>421.4107018753073</v>
       </c>
       <c r="AD29" t="n">
-        <v>306041.4325014462</v>
+        <v>340489.6523373596</v>
       </c>
       <c r="AE29" t="n">
-        <v>418739.3895435871</v>
+        <v>465872.9636712844</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.639524697404563e-06</v>
+        <v>5.24697324091828e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>8.35</v>
       </c>
       <c r="AH29" t="n">
-        <v>378775.4899099706</v>
+        <v>421410.7018753073</v>
       </c>
     </row>
   </sheetData>
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1069.539556967073</v>
+        <v>1153.628451662531</v>
       </c>
       <c r="AB2" t="n">
-        <v>1463.39120659747</v>
+        <v>1578.44534206001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1323.727203722265</v>
+        <v>1427.800733975753</v>
       </c>
       <c r="AD2" t="n">
-        <v>1069539.556967073</v>
+        <v>1153628.451662531</v>
       </c>
       <c r="AE2" t="n">
-        <v>1463391.20659747</v>
+        <v>1578445.34206001</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695232679334771e-06</v>
+        <v>2.481756869667847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1323727.203722265</v>
+        <v>1427800.733975753</v>
       </c>
     </row>
     <row r="3">
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>492.8093119520364</v>
+        <v>543.3138532820547</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.2834418252028</v>
+        <v>743.3859833760453</v>
       </c>
       <c r="AC3" t="n">
-        <v>609.9307765001589</v>
+        <v>672.4382684714154</v>
       </c>
       <c r="AD3" t="n">
-        <v>492809.3119520364</v>
+        <v>543313.8532820547</v>
       </c>
       <c r="AE3" t="n">
-        <v>674283.4418252028</v>
+        <v>743385.9833760452</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72477753275076e-06</v>
+        <v>3.988971804669543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.53958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>609930.7765001589</v>
+        <v>672438.2684714154</v>
       </c>
     </row>
     <row r="4">
@@ -10298,28 +10298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.1028133613185</v>
+        <v>449.104679790313</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.0160293495215</v>
+        <v>614.484835989241</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.8552012853096</v>
+        <v>555.839265677311</v>
       </c>
       <c r="AD4" t="n">
-        <v>407102.8133613184</v>
+        <v>449104.6797903129</v>
       </c>
       <c r="AE4" t="n">
-        <v>557016.0293495215</v>
+        <v>614484.835989241</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.092558360627448e-06</v>
+        <v>4.527389101151386e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>503855.2012853096</v>
+        <v>555839.265677311</v>
       </c>
     </row>
     <row r="5">
@@ -10404,28 +10404,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.594110300532</v>
+        <v>408.6812280755472</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.5902347039029</v>
+        <v>559.1756859962718</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.7191666900775</v>
+        <v>505.8087433327913</v>
       </c>
       <c r="AD5" t="n">
-        <v>366594.110300532</v>
+        <v>408681.2280755471</v>
       </c>
       <c r="AE5" t="n">
-        <v>501590.2347039029</v>
+        <v>559175.6859962718</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.286182817814888e-06</v>
+        <v>4.81084802252447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.566666666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>453719.1666900775</v>
+        <v>505808.7433327913</v>
       </c>
     </row>
     <row r="6">
@@ -10510,28 +10510,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.1210700209033</v>
+        <v>381.7908537494666</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.3146060202958</v>
+        <v>522.3830895237394</v>
       </c>
       <c r="AC6" t="n">
-        <v>430.8558085334662</v>
+        <v>472.5275806288638</v>
       </c>
       <c r="AD6" t="n">
-        <v>348121.0700209034</v>
+        <v>381790.8537494666</v>
       </c>
       <c r="AE6" t="n">
-        <v>476314.6060202958</v>
+        <v>522383.0895237394</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.409782529768522e-06</v>
+        <v>4.991793351132852e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.220833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>430855.8085334662</v>
+        <v>472527.5806288638</v>
       </c>
     </row>
     <row r="7">
@@ -10616,28 +10616,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.3178743397241</v>
+        <v>369.9876580682873</v>
       </c>
       <c r="AB7" t="n">
-        <v>460.1649529690636</v>
+        <v>506.2334364725071</v>
       </c>
       <c r="AC7" t="n">
-        <v>416.2474557032631</v>
+        <v>457.9192277986606</v>
       </c>
       <c r="AD7" t="n">
-        <v>336317.8743397241</v>
+        <v>369987.6580682872</v>
       </c>
       <c r="AE7" t="n">
-        <v>460164.9529690635</v>
+        <v>506233.4364725071</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.490975014543926e-06</v>
+        <v>5.110656094467786e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.00625</v>
       </c>
       <c r="AH7" t="n">
-        <v>416247.4557032631</v>
+        <v>457919.2277986606</v>
       </c>
     </row>
     <row r="8">
@@ -10722,28 +10722,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>319.4871779099703</v>
+        <v>361.4889548304138</v>
       </c>
       <c r="AB8" t="n">
-        <v>437.1364515959522</v>
+        <v>494.6051357661233</v>
       </c>
       <c r="AC8" t="n">
-        <v>395.4167621804968</v>
+        <v>447.4007157912716</v>
       </c>
       <c r="AD8" t="n">
-        <v>319487.1779099703</v>
+        <v>361488.9548304138</v>
       </c>
       <c r="AE8" t="n">
-        <v>437136.4515959522</v>
+        <v>494605.1357661233</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.548473781643236e-06</v>
+        <v>5.194832126457767e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.860416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>395416.7621804968</v>
+        <v>447400.7157912717</v>
       </c>
     </row>
     <row r="9">
@@ -10828,28 +10828,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.7202183631106</v>
+        <v>355.7219952835541</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.2458431236397</v>
+        <v>486.7145272938109</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.2792223062432</v>
+        <v>440.2631759170182</v>
       </c>
       <c r="AD9" t="n">
-        <v>313720.2183631106</v>
+        <v>355721.9952835541</v>
       </c>
       <c r="AE9" t="n">
-        <v>429245.8431236397</v>
+        <v>486714.5272938109</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.586202631445932e-06</v>
+        <v>5.250065743249092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.766666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>388279.2223062433</v>
+        <v>440263.1759170182</v>
       </c>
     </row>
     <row r="10">
@@ -10934,28 +10934,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>308.2384009793387</v>
+        <v>350.2401778997823</v>
       </c>
       <c r="AB10" t="n">
-        <v>421.7453787384482</v>
+        <v>479.2140629086194</v>
       </c>
       <c r="AC10" t="n">
-        <v>381.4945917150066</v>
+        <v>433.4785453257815</v>
       </c>
       <c r="AD10" t="n">
-        <v>308238.4009793387</v>
+        <v>350240.1778997823</v>
       </c>
       <c r="AE10" t="n">
-        <v>421745.3787384482</v>
+        <v>479214.0629086194</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.62030951166757e-06</v>
+        <v>5.299996932828449e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.685416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>381494.5917150066</v>
+        <v>433478.5453257815</v>
       </c>
     </row>
     <row r="11">
@@ -11040,28 +11040,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>303.6338311749806</v>
+        <v>345.6356080954241</v>
       </c>
       <c r="AB11" t="n">
-        <v>415.4452031928425</v>
+        <v>472.9138873630137</v>
       </c>
       <c r="AC11" t="n">
-        <v>375.7956960811215</v>
+        <v>427.7796496918965</v>
       </c>
       <c r="AD11" t="n">
-        <v>303633.8311749806</v>
+        <v>345635.6080954241</v>
       </c>
       <c r="AE11" t="n">
-        <v>415445.2031928425</v>
+        <v>472913.8873630137</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.647927029723144e-06</v>
+        <v>5.3404279403197e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.61875</v>
       </c>
       <c r="AH11" t="n">
-        <v>375795.6960811216</v>
+        <v>427779.6496918965</v>
       </c>
     </row>
     <row r="12">
@@ -11146,28 +11146,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>298.9334663592476</v>
+        <v>332.6885014338313</v>
       </c>
       <c r="AB12" t="n">
-        <v>409.0139566864961</v>
+        <v>455.1990848425889</v>
       </c>
       <c r="AC12" t="n">
-        <v>369.9782387150297</v>
+        <v>411.7555230611395</v>
       </c>
       <c r="AD12" t="n">
-        <v>298933.4663592476</v>
+        <v>332688.5014338313</v>
       </c>
       <c r="AE12" t="n">
-        <v>409013.9566864961</v>
+        <v>455199.0848425889</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.676148209375562e-06</v>
+        <v>5.381742685679613e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.552083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>369978.2387150297</v>
+        <v>411755.5230611395</v>
       </c>
     </row>
     <row r="13">
@@ -11252,28 +11252,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>295.8740951871935</v>
+        <v>329.6291302617772</v>
       </c>
       <c r="AB13" t="n">
-        <v>404.8279900789612</v>
+        <v>451.013118235054</v>
       </c>
       <c r="AC13" t="n">
-        <v>366.1917748854769</v>
+        <v>407.9690592315868</v>
       </c>
       <c r="AD13" t="n">
-        <v>295874.0951871935</v>
+        <v>329629.1302617772</v>
       </c>
       <c r="AE13" t="n">
-        <v>404827.9900789612</v>
+        <v>451013.118235054</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.689881510703743e-06</v>
+        <v>5.401847722191655e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.520833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>366191.7748854769</v>
+        <v>407969.0592315868</v>
       </c>
     </row>
     <row r="14">
@@ -11358,28 +11358,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>291.8228392995136</v>
+        <v>325.4072821735051</v>
       </c>
       <c r="AB14" t="n">
-        <v>399.2848830446418</v>
+        <v>445.2365994258877</v>
       </c>
       <c r="AC14" t="n">
-        <v>361.1776942067135</v>
+        <v>402.7438432701722</v>
       </c>
       <c r="AD14" t="n">
-        <v>291822.8392995136</v>
+        <v>325407.2821735051</v>
       </c>
       <c r="AE14" t="n">
-        <v>399284.8830446419</v>
+        <v>445236.5994258877</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.710858751194042e-06</v>
+        <v>5.432557613127632e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.472916666666668</v>
       </c>
       <c r="AH14" t="n">
-        <v>361177.6942067135</v>
+        <v>402743.8432701722</v>
       </c>
     </row>
     <row r="15">
@@ -11464,28 +11464,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>288.7487580779684</v>
+        <v>322.33320095196</v>
       </c>
       <c r="AB15" t="n">
-        <v>395.0787894984318</v>
+        <v>441.0305058796776</v>
       </c>
       <c r="AC15" t="n">
-        <v>357.3730243252643</v>
+        <v>398.939173388723</v>
       </c>
       <c r="AD15" t="n">
-        <v>288748.7580779684</v>
+        <v>322333.2009519599</v>
       </c>
       <c r="AE15" t="n">
-        <v>395078.7894984318</v>
+        <v>441030.5058796776</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.725195714119067e-06</v>
+        <v>5.453546387508335e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.439583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>357373.0243252643</v>
+        <v>398939.173388723</v>
       </c>
     </row>
     <row r="16">
@@ -11570,28 +11570,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>286.2530479235209</v>
+        <v>319.8374907975124</v>
       </c>
       <c r="AB16" t="n">
-        <v>391.6640487621553</v>
+        <v>437.6157651434011</v>
       </c>
       <c r="AC16" t="n">
-        <v>354.2841816522393</v>
+        <v>395.8503307156981</v>
       </c>
       <c r="AD16" t="n">
-        <v>286253.0479235208</v>
+        <v>319837.4907975123</v>
       </c>
       <c r="AE16" t="n">
-        <v>391664.0487621553</v>
+        <v>437615.7651434011</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.732288737881974e-06</v>
+        <v>5.463930307465105e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.424999999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>354284.1816522393</v>
+        <v>395850.3307156981</v>
       </c>
     </row>
     <row r="17">
@@ -11676,28 +11676,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>282.6989546979757</v>
+        <v>316.2833975719672</v>
       </c>
       <c r="AB17" t="n">
-        <v>386.8011816154374</v>
+        <v>432.7528979966832</v>
       </c>
       <c r="AC17" t="n">
-        <v>349.8854197209272</v>
+        <v>391.451568784386</v>
       </c>
       <c r="AD17" t="n">
-        <v>282698.9546979757</v>
+        <v>316283.3975719672</v>
       </c>
       <c r="AE17" t="n">
-        <v>386801.1816154374</v>
+        <v>432752.8979966832</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.74873851639595e-06</v>
+        <v>5.488012164386123e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.387499999999999</v>
       </c>
       <c r="AH17" t="n">
-        <v>349885.4197209273</v>
+        <v>391451.568784386</v>
       </c>
     </row>
     <row r="18">
@@ -11782,28 +11782,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>280.3153785441564</v>
+        <v>313.899821418148</v>
       </c>
       <c r="AB18" t="n">
-        <v>383.5398675658236</v>
+        <v>429.4915839470693</v>
       </c>
       <c r="AC18" t="n">
-        <v>346.9353609069255</v>
+        <v>388.5015099703843</v>
       </c>
       <c r="AD18" t="n">
-        <v>280315.3785441564</v>
+        <v>313899.821418148</v>
       </c>
       <c r="AE18" t="n">
-        <v>383539.8675658235</v>
+        <v>429491.5839470693</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.755227878562014e-06</v>
+        <v>5.497512346474232e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.372916666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>346935.3609069255</v>
+        <v>388501.5099703843</v>
       </c>
     </row>
     <row r="19">
@@ -11888,28 +11888,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>277.3822408727962</v>
+        <v>310.9666837467877</v>
       </c>
       <c r="AB19" t="n">
-        <v>379.526619202967</v>
+        <v>425.4783355842129</v>
       </c>
       <c r="AC19" t="n">
-        <v>343.3051313351905</v>
+        <v>384.8712803986493</v>
       </c>
       <c r="AD19" t="n">
-        <v>277382.2408727962</v>
+        <v>310966.6837467877</v>
       </c>
       <c r="AE19" t="n">
-        <v>379526.619202967</v>
+        <v>425478.3355842129</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.76413188711545e-06</v>
+        <v>5.510547480036984e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.352083333333335</v>
       </c>
       <c r="AH19" t="n">
-        <v>343305.1313351906</v>
+        <v>384871.2803986493</v>
       </c>
     </row>
     <row r="20">
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>276.6673850707134</v>
+        <v>310.2518279447048</v>
       </c>
       <c r="AB20" t="n">
-        <v>378.548521957345</v>
+        <v>424.5002383385908</v>
       </c>
       <c r="AC20" t="n">
-        <v>342.4203823179226</v>
+        <v>383.9865313813813</v>
       </c>
       <c r="AD20" t="n">
-        <v>276667.3850707134</v>
+        <v>310251.8279447048</v>
       </c>
       <c r="AE20" t="n">
-        <v>378548.521957345</v>
+        <v>424500.2383385908</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.768810264490985e-06</v>
+        <v>5.517396448519108e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>342420.3823179227</v>
+        <v>383986.5313813813</v>
       </c>
     </row>
     <row r="21">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>277.7085109609196</v>
+        <v>311.2929538349111</v>
       </c>
       <c r="AB21" t="n">
-        <v>379.9730363315578</v>
+        <v>425.9247527128036</v>
       </c>
       <c r="AC21" t="n">
-        <v>343.708943039579</v>
+        <v>385.2750921030378</v>
       </c>
       <c r="AD21" t="n">
-        <v>277708.5109609195</v>
+        <v>311292.9538349111</v>
       </c>
       <c r="AE21" t="n">
-        <v>379973.0363315578</v>
+        <v>425924.7527128036</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.768508433692563e-06</v>
+        <v>5.516954579584778e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.34375</v>
       </c>
       <c r="AH21" t="n">
-        <v>343708.943039579</v>
+        <v>385275.0921030378</v>
       </c>
     </row>
   </sheetData>
@@ -12397,28 +12397,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.7710218875154</v>
+        <v>435.971361318051</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.3559546952977</v>
+        <v>596.5152502543734</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.5030355103647</v>
+        <v>539.5846719845072</v>
       </c>
       <c r="AD2" t="n">
-        <v>381771.0218875154</v>
+        <v>435971.361318051</v>
       </c>
       <c r="AE2" t="n">
-        <v>522355.9546952976</v>
+        <v>596515.2502543734</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.951708197877946e-06</v>
+        <v>4.5666569200645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>472503.0355103647</v>
+        <v>539584.6719845071</v>
       </c>
     </row>
     <row r="3">
@@ -12503,28 +12503,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.7785963325516</v>
+        <v>306.6150400037508</v>
       </c>
       <c r="AB3" t="n">
-        <v>366.3864890601092</v>
+        <v>419.5242246340171</v>
       </c>
       <c r="AC3" t="n">
-        <v>331.4190767708787</v>
+        <v>379.4854214408931</v>
       </c>
       <c r="AD3" t="n">
-        <v>267778.5963325516</v>
+        <v>306615.0400037508</v>
       </c>
       <c r="AE3" t="n">
-        <v>366386.4890601092</v>
+        <v>419524.2246340171</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.676836877708071e-06</v>
+        <v>5.68852049250846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.541666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>331419.0767708787</v>
+        <v>379485.4214408931</v>
       </c>
     </row>
     <row r="4">
@@ -12609,28 +12609,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.3804910387065</v>
+        <v>274.131593855337</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.0579720933886</v>
+        <v>375.0789405452542</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.3212112480938</v>
+        <v>339.2819328862137</v>
       </c>
       <c r="AD4" t="n">
-        <v>235380.4910387065</v>
+        <v>274131.593855337</v>
       </c>
       <c r="AE4" t="n">
-        <v>322057.9720933886</v>
+        <v>375078.9405452542</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.920679499258006e-06</v>
+        <v>6.065775126251807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.947916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>291321.2112480939</v>
+        <v>339281.9328862137</v>
       </c>
     </row>
     <row r="5">
@@ -12715,28 +12715,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.7699134842543</v>
+        <v>260.5210163008846</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.4353794270929</v>
+        <v>356.4563478789489</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.4759326888906</v>
+        <v>322.4366543270075</v>
       </c>
       <c r="AD5" t="n">
-        <v>221769.9134842543</v>
+        <v>260521.0163008846</v>
       </c>
       <c r="AE5" t="n">
-        <v>303435.3794270928</v>
+        <v>356456.3478789488</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.051357589259906e-06</v>
+        <v>6.267950261462332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.660416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>274475.9326888905</v>
+        <v>322436.6543270075</v>
       </c>
     </row>
     <row r="6">
@@ -12821,28 +12821,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.8435964893019</v>
+        <v>243.9980922808325</v>
       </c>
       <c r="AB6" t="n">
-        <v>291.2219987132924</v>
+        <v>333.8489542945944</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.4281798888238</v>
+        <v>301.9868786567678</v>
       </c>
       <c r="AD6" t="n">
-        <v>212843.5964893019</v>
+        <v>243998.0922808325</v>
       </c>
       <c r="AE6" t="n">
-        <v>291221.9987132924</v>
+        <v>333848.9542945944</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.124948214686233e-06</v>
+        <v>6.381804042502277e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.50625</v>
       </c>
       <c r="AH6" t="n">
-        <v>263428.1798888238</v>
+        <v>301986.8786567678</v>
       </c>
     </row>
     <row r="7">
@@ -12927,28 +12927,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.4137138298795</v>
+        <v>241.3976174208179</v>
       </c>
       <c r="AB7" t="n">
-        <v>287.8973260598151</v>
+        <v>330.2908698662703</v>
       </c>
       <c r="AC7" t="n">
-        <v>260.4208093271861</v>
+        <v>298.768372812479</v>
       </c>
       <c r="AD7" t="n">
-        <v>210413.7138298795</v>
+        <v>241397.6174208179</v>
       </c>
       <c r="AE7" t="n">
-        <v>287897.3260598151</v>
+        <v>330290.8698662703</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.149702955962366e-06</v>
+        <v>6.420102682806333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.454166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>260420.8093271861</v>
+        <v>298768.372812479</v>
       </c>
     </row>
   </sheetData>
@@ -13224,28 +13224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.3924940281319</v>
+        <v>607.542752610344</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.4395360493041</v>
+        <v>831.266797016065</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.4368855912969</v>
+        <v>751.9318605991283</v>
       </c>
       <c r="AD2" t="n">
-        <v>551392.4940281318</v>
+        <v>607542.752610344</v>
       </c>
       <c r="AE2" t="n">
-        <v>754439.5360493042</v>
+        <v>831266.797016065</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.444086848180563e-06</v>
+        <v>3.693733711997419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.73125</v>
       </c>
       <c r="AH2" t="n">
-        <v>682436.8855912969</v>
+        <v>751931.8605991283</v>
       </c>
     </row>
     <row r="3">
@@ -13330,28 +13330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.0245189356382</v>
+        <v>383.0465951483407</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.3412799814709</v>
+        <v>524.1012503050795</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.5480069446622</v>
+        <v>474.0817625566866</v>
       </c>
       <c r="AD3" t="n">
-        <v>343024.5189356382</v>
+        <v>383046.5951483407</v>
       </c>
       <c r="AE3" t="n">
-        <v>469341.2799814709</v>
+        <v>524101.2503050795</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.295191641466299e-06</v>
+        <v>4.98000325260004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.18541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>424548.0069446623</v>
+        <v>474081.7625566866</v>
       </c>
     </row>
     <row r="4">
@@ -13436,28 +13436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.1982885246584</v>
+        <v>336.1350238827891</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.2715657056814</v>
+        <v>459.9147689070923</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.5930162769453</v>
+        <v>416.0211488570309</v>
       </c>
       <c r="AD4" t="n">
-        <v>296198.2885246584</v>
+        <v>336135.0238827891</v>
       </c>
       <c r="AE4" t="n">
-        <v>405271.5657056815</v>
+        <v>459914.7689070923</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.595164597191842e-06</v>
+        <v>5.433350571283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.335416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>366593.0162769453</v>
+        <v>416021.1488570309</v>
       </c>
     </row>
     <row r="5">
@@ -13542,28 +13542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.3293606522362</v>
+        <v>310.3513473563875</v>
       </c>
       <c r="AB5" t="n">
-        <v>369.8765573340815</v>
+        <v>424.6364051881416</v>
       </c>
       <c r="AC5" t="n">
-        <v>334.5760578271245</v>
+        <v>384.1097026579224</v>
       </c>
       <c r="AD5" t="n">
-        <v>270329.3606522362</v>
+        <v>310351.3473563875</v>
       </c>
       <c r="AE5" t="n">
-        <v>369876.5573340815</v>
+        <v>424636.4051881416</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.746439895487376e-06</v>
+        <v>5.661972017170917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>334576.0578271245</v>
+        <v>384109.7026579224</v>
       </c>
     </row>
     <row r="6">
@@ -13648,28 +13648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>259.7354906861592</v>
+        <v>299.7574773903104</v>
       </c>
       <c r="AB6" t="n">
-        <v>355.3815570779372</v>
+        <v>410.1414049319973</v>
       </c>
       <c r="AC6" t="n">
-        <v>321.464440051566</v>
+        <v>370.9980848823639</v>
       </c>
       <c r="AD6" t="n">
-        <v>259735.4906861591</v>
+        <v>299757.4773903104</v>
       </c>
       <c r="AE6" t="n">
-        <v>355381.5570779372</v>
+        <v>410141.4049319973</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.833757479807056e-06</v>
+        <v>5.793934555691951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.754166666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>321464.4400515661</v>
+        <v>370998.0848823639</v>
       </c>
     </row>
     <row r="7">
@@ -13754,28 +13754,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>251.1395339391235</v>
+        <v>291.1615206432779</v>
       </c>
       <c r="AB7" t="n">
-        <v>343.6201898296335</v>
+        <v>398.3800376838603</v>
       </c>
       <c r="AC7" t="n">
-        <v>310.8255611863612</v>
+        <v>360.3592060172064</v>
       </c>
       <c r="AD7" t="n">
-        <v>251139.5339391235</v>
+        <v>291161.5206432779</v>
       </c>
       <c r="AE7" t="n">
-        <v>343620.1898296336</v>
+        <v>398380.0376838603</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.90222606529758e-06</v>
+        <v>5.897410715971359e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.602083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>310825.5611863612</v>
+        <v>360359.2060172064</v>
       </c>
     </row>
     <row r="8">
@@ -13860,28 +13860,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>244.479047479241</v>
+        <v>276.6502503807939</v>
       </c>
       <c r="AB8" t="n">
-        <v>334.5070184153024</v>
+        <v>378.5250775186681</v>
       </c>
       <c r="AC8" t="n">
-        <v>302.5821380613945</v>
+        <v>342.3991753835687</v>
       </c>
       <c r="AD8" t="n">
-        <v>244479.047479241</v>
+        <v>276650.2503807939</v>
       </c>
       <c r="AE8" t="n">
-        <v>334507.0184153024</v>
+        <v>378525.0775186681</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.946368165119707e-06</v>
+        <v>5.96412240518679e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.504166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>302582.1380613944</v>
+        <v>342399.1753835687</v>
       </c>
     </row>
     <row r="9">
@@ -13966,28 +13966,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>238.77736698462</v>
+        <v>270.7779776855807</v>
       </c>
       <c r="AB9" t="n">
-        <v>326.7057276221753</v>
+        <v>370.4903749506902</v>
       </c>
       <c r="AC9" t="n">
-        <v>295.5253915123806</v>
+        <v>335.1312935519026</v>
       </c>
       <c r="AD9" t="n">
-        <v>238777.3669846201</v>
+        <v>270777.9776855807</v>
       </c>
       <c r="AE9" t="n">
-        <v>326705.7276221754</v>
+        <v>370490.3749506902</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.981810727020683e-06</v>
+        <v>6.017686535213778e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.429166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>295525.3915123806</v>
+        <v>335131.2935519026</v>
       </c>
     </row>
     <row r="10">
@@ -14072,28 +14072,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>234.8651415340553</v>
+        <v>266.8657522350159</v>
       </c>
       <c r="AB10" t="n">
-        <v>321.3528481655096</v>
+        <v>365.1374954940216</v>
       </c>
       <c r="AC10" t="n">
-        <v>290.6833833582439</v>
+        <v>330.289285397765</v>
       </c>
       <c r="AD10" t="n">
-        <v>234865.1415340553</v>
+        <v>266865.7522350159</v>
       </c>
       <c r="AE10" t="n">
-        <v>321352.8481655096</v>
+        <v>365137.4954940216</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.999370905417076e-06</v>
+        <v>6.044225126908967e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.391666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>290683.3833582439</v>
+        <v>330289.285397765</v>
       </c>
     </row>
     <row r="11">
@@ -14178,28 +14178,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>234.9103205496649</v>
+        <v>266.9109312506256</v>
       </c>
       <c r="AB11" t="n">
-        <v>321.4146640878242</v>
+        <v>365.1993114163363</v>
       </c>
       <c r="AC11" t="n">
-        <v>290.739299655692</v>
+        <v>330.3452016952132</v>
       </c>
       <c r="AD11" t="n">
-        <v>234910.3205496649</v>
+        <v>266910.9312506256</v>
       </c>
       <c r="AE11" t="n">
-        <v>321414.6640878242</v>
+        <v>365199.3114163363</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.005009494810415e-06</v>
+        <v>6.052746693049625e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.38125</v>
       </c>
       <c r="AH11" t="n">
-        <v>290739.299655692</v>
+        <v>330345.2016952132</v>
       </c>
     </row>
   </sheetData>
@@ -14475,28 +14475,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.8637026150985</v>
+        <v>332.1312315833738</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.4995734513554</v>
+        <v>454.4366036481821</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.0399650377685</v>
+        <v>411.0658120017779</v>
       </c>
       <c r="AD2" t="n">
-        <v>286863.7026150985</v>
+        <v>332131.2315833738</v>
       </c>
       <c r="AE2" t="n">
-        <v>392499.5734513554</v>
+        <v>454436.6036481821</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.387233195021386e-06</v>
+        <v>5.353481385220863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>355039.9650377685</v>
+        <v>411065.8120017779</v>
       </c>
     </row>
     <row r="3">
@@ -14581,28 +14581,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.2875597938266</v>
+        <v>250.5228958509419</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.4071577110213</v>
+        <v>342.7764783932314</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.6412816067732</v>
+        <v>310.0623723852925</v>
       </c>
       <c r="AD3" t="n">
-        <v>220287.5597938266</v>
+        <v>250522.8958509419</v>
       </c>
       <c r="AE3" t="n">
-        <v>301407.1577110214</v>
+        <v>342776.4783932314</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.003745665329146e-06</v>
+        <v>6.327871940438685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="AH3" t="n">
-        <v>272641.2816067733</v>
+        <v>310062.3723852925</v>
       </c>
     </row>
     <row r="4">
@@ -14687,28 +14687,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.0996055377952</v>
+        <v>231.8083228689289</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.5756433669346</v>
+        <v>317.170374010564</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.2294767018285</v>
+        <v>286.9000786665056</v>
       </c>
       <c r="AD4" t="n">
-        <v>194099.6055377952</v>
+        <v>231808.3228689289</v>
       </c>
       <c r="AE4" t="n">
-        <v>265575.6433669346</v>
+        <v>317170.3740105641</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.214146942429922e-06</v>
+        <v>6.660408632049191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>240229.4767018285</v>
+        <v>286900.0786665056</v>
       </c>
     </row>
     <row r="5">
@@ -14793,28 +14793,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.0435034752266</v>
+        <v>229.7522208063602</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.7623938161086</v>
+        <v>314.357124459738</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.6847197397119</v>
+        <v>284.3553217043889</v>
       </c>
       <c r="AD5" t="n">
-        <v>192043.5034752266</v>
+        <v>229752.2208063602</v>
       </c>
       <c r="AE5" t="n">
-        <v>262762.3938161086</v>
+        <v>314357.124459738</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.241430898562691e-06</v>
+        <v>6.703530597046065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.591666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>237684.7197397118</v>
+        <v>284355.3217043889</v>
       </c>
     </row>
   </sheetData>
@@ -15090,28 +15090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.63394055136</v>
+        <v>1286.375767075762</v>
       </c>
       <c r="AB2" t="n">
-        <v>1644.128569810403</v>
+        <v>1760.076075406625</v>
       </c>
       <c r="AC2" t="n">
-        <v>1487.215246656638</v>
+        <v>1592.096885052103</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201633.940551359</v>
+        <v>1286375.767075762</v>
       </c>
       <c r="AE2" t="n">
-        <v>1644128.569810403</v>
+        <v>1760076.075406625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58638013044166e-06</v>
+        <v>2.312761841167745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1487215.246656638</v>
+        <v>1592096.885052103</v>
       </c>
     </row>
     <row r="3">
@@ -15196,28 +15196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.2386125417286</v>
+        <v>570.0837084563705</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.4451768704708</v>
+        <v>780.0136802282036</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.6412863060204</v>
+        <v>705.5702693432991</v>
       </c>
       <c r="AD3" t="n">
-        <v>519238.6125417286</v>
+        <v>570083.7084563705</v>
       </c>
       <c r="AE3" t="n">
-        <v>710445.1768704709</v>
+        <v>780013.6802282037</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.642421433453687e-06</v>
+        <v>3.852349977350026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>642641.2863060205</v>
+        <v>705570.2693432991</v>
       </c>
     </row>
     <row r="4">
@@ -15302,28 +15302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.728673311159</v>
+        <v>467.01433522734</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.1325085309542</v>
+        <v>638.9896166764155</v>
       </c>
       <c r="AC4" t="n">
-        <v>525.6700375413575</v>
+        <v>578.0053444883773</v>
       </c>
       <c r="AD4" t="n">
-        <v>424728.673311159</v>
+        <v>467014.33522734</v>
       </c>
       <c r="AE4" t="n">
-        <v>581132.5085309541</v>
+        <v>638989.6166764155</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.022004045979465e-06</v>
+        <v>4.405738263659419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.31041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>525670.0375413575</v>
+        <v>578005.3444883773</v>
       </c>
     </row>
     <row r="5">
@@ -15408,28 +15408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.265585477359</v>
+        <v>424.6364987395606</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.0326384175274</v>
+        <v>581.0063912156382</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.1151374878764</v>
+        <v>525.5559566856085</v>
       </c>
       <c r="AD5" t="n">
-        <v>382265.585477359</v>
+        <v>424636.4987395606</v>
       </c>
       <c r="AE5" t="n">
-        <v>523032.6384175275</v>
+        <v>581006.3912156383</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.21553434566755e-06</v>
+        <v>4.687883434063026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.689583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>473115.1374878764</v>
+        <v>525555.9566856085</v>
       </c>
     </row>
     <row r="6">
@@ -15514,28 +15514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.4336150966462</v>
+        <v>403.6339361582557</v>
       </c>
       <c r="AB6" t="n">
-        <v>494.5294175009659</v>
+        <v>552.2697585242296</v>
       </c>
       <c r="AC6" t="n">
-        <v>447.3322239710695</v>
+        <v>499.5619078861507</v>
       </c>
       <c r="AD6" t="n">
-        <v>361433.6150966462</v>
+        <v>403633.9361582557</v>
       </c>
       <c r="AE6" t="n">
-        <v>494529.4175009659</v>
+        <v>552269.7585242296</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.347446033708423e-06</v>
+        <v>4.880195675404589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.308333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>447332.2239710696</v>
+        <v>499561.9078861506</v>
       </c>
     </row>
     <row r="7">
@@ -15620,28 +15620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>349.4561686459003</v>
+        <v>383.3529887642126</v>
       </c>
       <c r="AB7" t="n">
-        <v>478.1413468594109</v>
+        <v>524.5204715674479</v>
       </c>
       <c r="AC7" t="n">
-        <v>432.508207790743</v>
+        <v>474.4609739301554</v>
       </c>
       <c r="AD7" t="n">
-        <v>349456.1686459003</v>
+        <v>383352.9887642126</v>
       </c>
       <c r="AE7" t="n">
-        <v>478141.3468594109</v>
+        <v>524520.4715674479</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.427310933270584e-06</v>
+        <v>4.996629617441317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.091666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>432508.207790743</v>
+        <v>474460.9739301554</v>
       </c>
     </row>
     <row r="8">
@@ -15726,28 +15726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>330.8680334349442</v>
+        <v>373.1536058425742</v>
       </c>
       <c r="AB8" t="n">
-        <v>452.7082402131316</v>
+        <v>510.5652258890446</v>
       </c>
       <c r="AC8" t="n">
-        <v>409.5024011471953</v>
+        <v>461.8375973129885</v>
       </c>
       <c r="AD8" t="n">
-        <v>330868.0334349442</v>
+        <v>373153.6058425742</v>
       </c>
       <c r="AE8" t="n">
-        <v>452708.2402131316</v>
+        <v>510565.2258890446</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.494612814924091e-06</v>
+        <v>5.094748107921705e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>409502.4011471953</v>
+        <v>461837.5973129885</v>
       </c>
     </row>
     <row r="9">
@@ -15832,28 +15832,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>325.4565977739164</v>
+        <v>367.7421701815465</v>
       </c>
       <c r="AB9" t="n">
-        <v>445.3040752060212</v>
+        <v>503.1610608819342</v>
       </c>
       <c r="AC9" t="n">
-        <v>402.8048792565527</v>
+        <v>455.1400754223459</v>
       </c>
       <c r="AD9" t="n">
-        <v>325456.5977739164</v>
+        <v>367742.1701815465</v>
       </c>
       <c r="AE9" t="n">
-        <v>445304.0752060212</v>
+        <v>503161.0608819342</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.529161114172891e-06</v>
+        <v>5.145115599701639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.829166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>402804.8792565527</v>
+        <v>455140.0754223459</v>
       </c>
     </row>
     <row r="10">
@@ -15938,28 +15938,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>318.923999532417</v>
+        <v>361.2095719400471</v>
       </c>
       <c r="AB10" t="n">
-        <v>436.3658860941073</v>
+        <v>494.2228717700203</v>
       </c>
       <c r="AC10" t="n">
-        <v>394.7197383686525</v>
+        <v>447.0549345344459</v>
       </c>
       <c r="AD10" t="n">
-        <v>318923.999532417</v>
+        <v>361209.5719400471</v>
       </c>
       <c r="AE10" t="n">
-        <v>436365.8860941074</v>
+        <v>494222.8717700203</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.573131676853183e-06</v>
+        <v>5.209219680148827e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.720833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>394719.7383686525</v>
+        <v>447054.9345344459</v>
       </c>
     </row>
     <row r="11">
@@ -16044,28 +16044,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>314.2234355563019</v>
+        <v>356.5090079639319</v>
       </c>
       <c r="AB11" t="n">
-        <v>429.9343670877398</v>
+        <v>487.7913527636528</v>
       </c>
       <c r="AC11" t="n">
-        <v>388.902034509559</v>
+        <v>441.2372306753525</v>
       </c>
       <c r="AD11" t="n">
-        <v>314223.4355563019</v>
+        <v>356509.0079639319</v>
       </c>
       <c r="AE11" t="n">
-        <v>429934.3670877398</v>
+        <v>487791.3527636528</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.599603750303562e-06</v>
+        <v>5.247812953071113e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.65625</v>
       </c>
       <c r="AH11" t="n">
-        <v>388902.034509559</v>
+        <v>441237.2306753524</v>
       </c>
     </row>
     <row r="12">
@@ -16150,28 +16150,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>310.4191603814983</v>
+        <v>352.7047327891283</v>
       </c>
       <c r="AB12" t="n">
-        <v>424.7291899607977</v>
+        <v>482.5861756367108</v>
       </c>
       <c r="AC12" t="n">
-        <v>384.1936321821004</v>
+        <v>436.5288283478938</v>
       </c>
       <c r="AD12" t="n">
-        <v>310419.1603814983</v>
+        <v>352704.7327891283</v>
       </c>
       <c r="AE12" t="n">
-        <v>424729.1899607977</v>
+        <v>482586.1756367108</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.620691673221661e-06</v>
+        <v>5.278556746754968e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.606250000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>384193.6321821004</v>
+        <v>436528.8283478938</v>
       </c>
     </row>
     <row r="13">
@@ -16256,28 +16256,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>306.5164206210531</v>
+        <v>340.498492085386</v>
       </c>
       <c r="AB13" t="n">
-        <v>419.38928924383</v>
+        <v>465.8850586045163</v>
       </c>
       <c r="AC13" t="n">
-        <v>379.3633640949624</v>
+        <v>421.421642485087</v>
       </c>
       <c r="AD13" t="n">
-        <v>306516.4206210531</v>
+        <v>340498.492085386</v>
       </c>
       <c r="AE13" t="n">
-        <v>419389.28924383</v>
+        <v>465885.0586045163</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.64177959613976e-06</v>
+        <v>5.309300540438823e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.55625</v>
       </c>
       <c r="AH13" t="n">
-        <v>379363.3640949624</v>
+        <v>421421.642485087</v>
       </c>
     </row>
     <row r="14">
@@ -16362,28 +16362,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>303.5685889427179</v>
+        <v>337.5506604070509</v>
       </c>
       <c r="AB14" t="n">
-        <v>415.3559358923765</v>
+        <v>461.8517052530628</v>
       </c>
       <c r="AC14" t="n">
-        <v>375.7149483265247</v>
+        <v>417.7732267166493</v>
       </c>
       <c r="AD14" t="n">
-        <v>303568.5889427179</v>
+        <v>337550.6604070509</v>
       </c>
       <c r="AE14" t="n">
-        <v>415355.9358923765</v>
+        <v>461851.7052530628</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.65389393483739e-06</v>
+        <v>5.326961868725293e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.527083333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>375714.9483265247</v>
+        <v>417773.2267166493</v>
       </c>
     </row>
     <row r="15">
@@ -16468,28 +16468,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>300.1458682645103</v>
+        <v>333.957347528251</v>
       </c>
       <c r="AB15" t="n">
-        <v>410.6728184606737</v>
+        <v>456.9351760465129</v>
       </c>
       <c r="AC15" t="n">
-        <v>371.478781049707</v>
+        <v>413.3259241571803</v>
       </c>
       <c r="AD15" t="n">
-        <v>300145.8682645104</v>
+        <v>333957.3475282511</v>
       </c>
       <c r="AE15" t="n">
-        <v>410672.8184606737</v>
+        <v>456935.1760465129</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.670794185119272e-06</v>
+        <v>5.351600511890369e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.487500000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>371478.781049707</v>
+        <v>413325.9241571804</v>
       </c>
     </row>
     <row r="16">
@@ -16574,28 +16574,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>297.5179543207801</v>
+        <v>331.3294335845208</v>
       </c>
       <c r="AB16" t="n">
-        <v>407.0771906674811</v>
+        <v>453.3395482533203</v>
       </c>
       <c r="AC16" t="n">
-        <v>368.2263149266014</v>
+        <v>410.0734580340747</v>
       </c>
       <c r="AD16" t="n">
-        <v>297517.9543207801</v>
+        <v>331329.4335845208</v>
       </c>
       <c r="AE16" t="n">
-        <v>407077.1906674811</v>
+        <v>453339.5482533203</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.68515191987202e-06</v>
+        <v>5.372532456526185e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.454166666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>368226.3149266014</v>
+        <v>410073.4580340747</v>
       </c>
     </row>
     <row r="17">
@@ -16680,28 +16680,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>294.111390246432</v>
+        <v>327.9228695101727</v>
       </c>
       <c r="AB17" t="n">
-        <v>402.4161794139578</v>
+        <v>448.6785369997971</v>
       </c>
       <c r="AC17" t="n">
-        <v>364.010144045344</v>
+        <v>405.8572871528175</v>
       </c>
       <c r="AD17" t="n">
-        <v>294111.390246432</v>
+        <v>327922.8695101727</v>
       </c>
       <c r="AE17" t="n">
-        <v>402416.1794139578</v>
+        <v>448678.5369997971</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.700407013046815e-06</v>
+        <v>5.394772647701741e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.420833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>364010.144045344</v>
+        <v>405857.2871528175</v>
       </c>
     </row>
     <row r="18">
@@ -16786,28 +16786,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>292.0067090532846</v>
+        <v>325.8181883170253</v>
       </c>
       <c r="AB18" t="n">
-        <v>399.5364617535124</v>
+        <v>445.7988193393516</v>
       </c>
       <c r="AC18" t="n">
-        <v>361.4052625967023</v>
+        <v>403.2524057041758</v>
       </c>
       <c r="AD18" t="n">
-        <v>292006.7090532845</v>
+        <v>325818.1883170253</v>
       </c>
       <c r="AE18" t="n">
-        <v>399536.4617535124</v>
+        <v>445798.8193393516</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.706239842790118e-06</v>
+        <v>5.40327625021004e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.40625</v>
       </c>
       <c r="AH18" t="n">
-        <v>361405.2625967023</v>
+        <v>403252.4057041758</v>
       </c>
     </row>
     <row r="19">
@@ -16892,28 +16892,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>289.0899102615216</v>
+        <v>322.9013895252623</v>
       </c>
       <c r="AB19" t="n">
-        <v>395.5455689665415</v>
+        <v>441.8079265523806</v>
       </c>
       <c r="AC19" t="n">
-        <v>357.7952550160666</v>
+        <v>399.6423981235401</v>
       </c>
       <c r="AD19" t="n">
-        <v>289089.9102615216</v>
+        <v>322901.3895252623</v>
       </c>
       <c r="AE19" t="n">
-        <v>395545.5689665414</v>
+        <v>441807.9265523807</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.714914307536571e-06</v>
+        <v>5.415922633427513e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.387499999999999</v>
       </c>
       <c r="AH19" t="n">
-        <v>357795.2550160666</v>
+        <v>399642.3981235401</v>
       </c>
     </row>
     <row r="20">
@@ -16998,28 +16998,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>286.2905574709926</v>
+        <v>320.1020367347332</v>
       </c>
       <c r="AB20" t="n">
-        <v>391.7153709798105</v>
+        <v>437.9777285656497</v>
       </c>
       <c r="AC20" t="n">
-        <v>354.3306057494727</v>
+        <v>396.1777488569462</v>
       </c>
       <c r="AD20" t="n">
-        <v>286290.5574709926</v>
+        <v>320102.0367347333</v>
       </c>
       <c r="AE20" t="n">
-        <v>391715.3709798105</v>
+        <v>437977.7285656497</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.721494935964913e-06</v>
+        <v>5.425516441385595e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.372916666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>354330.6057494727</v>
+        <v>396177.7488569461</v>
       </c>
     </row>
     <row r="21">
@@ -17104,28 +17104,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>285.059004736027</v>
+        <v>318.8704839997678</v>
       </c>
       <c r="AB21" t="n">
-        <v>390.0303061955586</v>
+        <v>436.2926637813978</v>
       </c>
       <c r="AC21" t="n">
-        <v>352.8063611832266</v>
+        <v>394.6535042907</v>
       </c>
       <c r="AD21" t="n">
-        <v>285059.004736027</v>
+        <v>318870.4839997678</v>
       </c>
       <c r="AE21" t="n">
-        <v>390030.3061955586</v>
+        <v>436292.6637813979</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.727327765708217e-06</v>
+        <v>5.434020043893895e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.358333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>352806.3611832266</v>
+        <v>394653.5042907</v>
       </c>
     </row>
     <row r="22">
@@ -17210,28 +17210,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>283.5535924897257</v>
+        <v>317.3650717534665</v>
       </c>
       <c r="AB22" t="n">
-        <v>387.9705347460681</v>
+        <v>434.2328923319074</v>
       </c>
       <c r="AC22" t="n">
-        <v>350.9431714299679</v>
+        <v>392.7903145374415</v>
       </c>
       <c r="AD22" t="n">
-        <v>283553.5924897257</v>
+        <v>317365.0717534664</v>
       </c>
       <c r="AE22" t="n">
-        <v>387970.5347460681</v>
+        <v>434232.8923319074</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.735403991506638e-06</v>
+        <v>5.445794262751542e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>350943.171429968</v>
+        <v>392790.3145374415</v>
       </c>
     </row>
     <row r="23">
@@ -17316,28 +17316,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>284.5344918016826</v>
+        <v>318.3459710654233</v>
       </c>
       <c r="AB23" t="n">
-        <v>389.3126444589111</v>
+        <v>435.5750020447502</v>
       </c>
       <c r="AC23" t="n">
-        <v>352.15719207548</v>
+        <v>394.0043351829534</v>
       </c>
       <c r="AD23" t="n">
-        <v>284534.4918016826</v>
+        <v>318345.9710654233</v>
       </c>
       <c r="AE23" t="n">
-        <v>389312.644458911</v>
+        <v>435575.0020447503</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.73525443176963e-06</v>
+        <v>5.445576221661586e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>352157.19207548</v>
+        <v>394004.3351829534</v>
       </c>
     </row>
   </sheetData>
@@ -17613,28 +17613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.1386761704624</v>
+        <v>282.2302347296638</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.4095514913951</v>
+        <v>386.1598582763275</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.3985346474184</v>
+        <v>349.3053033811991</v>
       </c>
       <c r="AD2" t="n">
-        <v>245138.6761704624</v>
+        <v>282230.2347296638</v>
       </c>
       <c r="AE2" t="n">
-        <v>335409.5514913951</v>
+        <v>386159.8582763275</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.655800616197979e-06</v>
+        <v>5.857451326225036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>303398.5346474184</v>
+        <v>349305.3033811991</v>
       </c>
     </row>
     <row r="3">
@@ -17719,28 +17719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.5591402708934</v>
+        <v>222.6506093215403</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.8902020100295</v>
+        <v>304.6403863252251</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.6592774674027</v>
+        <v>275.5659354199033</v>
       </c>
       <c r="AD3" t="n">
-        <v>185559.1402708934</v>
+        <v>222650.6093215403</v>
       </c>
       <c r="AE3" t="n">
-        <v>253890.2020100295</v>
+        <v>304640.3863252251</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.213164783583071e-06</v>
+        <v>6.750479645924656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>229659.2774674027</v>
+        <v>275565.9354199033</v>
       </c>
     </row>
     <row r="4">
@@ -17825,28 +17825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.9091325403631</v>
+        <v>218.00060159101</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.5278562892584</v>
+        <v>298.278040604454</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.9041450926117</v>
+        <v>269.8108030451122</v>
       </c>
       <c r="AD4" t="n">
-        <v>180909.1325403631</v>
+        <v>218000.60159101</v>
       </c>
       <c r="AE4" t="n">
-        <v>247527.8562892584</v>
+        <v>298278.040604454</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.279926772804214e-06</v>
+        <v>6.857448034893173e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.7125</v>
       </c>
       <c r="AH4" t="n">
-        <v>223904.1450926117</v>
+        <v>269810.8030451122</v>
       </c>
     </row>
   </sheetData>
@@ -18122,28 +18122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>767.4417906219401</v>
+        <v>841.3700243105529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1050.047715071224</v>
+        <v>1151.199585887471</v>
       </c>
       <c r="AC2" t="n">
-        <v>949.83263489605</v>
+        <v>1041.330713129136</v>
       </c>
       <c r="AD2" t="n">
-        <v>767441.79062194</v>
+        <v>841370.024310553</v>
       </c>
       <c r="AE2" t="n">
-        <v>1050047.715071224</v>
+        <v>1151199.585887471</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.038624482322622e-06</v>
+        <v>3.027037694078338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.88958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>949832.63489605</v>
+        <v>1041330.713129136</v>
       </c>
     </row>
     <row r="3">
@@ -18228,28 +18228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.6985334291983</v>
+        <v>460.012469506464</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.9358521783683</v>
+        <v>629.4093550965985</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.305483128386</v>
+        <v>569.3394096277566</v>
       </c>
       <c r="AD3" t="n">
-        <v>410698.5334291983</v>
+        <v>460012.469506464</v>
       </c>
       <c r="AE3" t="n">
-        <v>561935.8521783684</v>
+        <v>629409.3550965985</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990531970750591e-06</v>
+        <v>4.440471052567209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>508305.483128386</v>
+        <v>569339.4096277566</v>
       </c>
     </row>
     <row r="4">
@@ -18334,28 +18334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.0026771921791</v>
+        <v>388.1687413020437</v>
       </c>
       <c r="AB4" t="n">
-        <v>474.784371612026</v>
+        <v>531.1095966457159</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.4716175494241</v>
+        <v>480.4212421588485</v>
       </c>
       <c r="AD4" t="n">
-        <v>347002.6771921791</v>
+        <v>388168.7413020437</v>
       </c>
       <c r="AE4" t="n">
-        <v>474784.3716120259</v>
+        <v>531109.5966457159</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.325767603721957e-06</v>
+        <v>4.938243401620134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>429471.6175494241</v>
+        <v>480421.2421588486</v>
       </c>
     </row>
     <row r="5">
@@ -18440,28 +18440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>322.9922165079627</v>
+        <v>363.9876884172351</v>
       </c>
       <c r="AB5" t="n">
-        <v>441.932200037115</v>
+        <v>498.0240132959578</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.7548111213102</v>
+        <v>450.4933004480836</v>
       </c>
       <c r="AD5" t="n">
-        <v>322992.2165079627</v>
+        <v>363987.688417235</v>
       </c>
       <c r="AE5" t="n">
-        <v>441932.200037115</v>
+        <v>498024.0132959578</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.498827557106525e-06</v>
+        <v>5.195210296098754e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.258333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>399754.8111213102</v>
+        <v>450493.3004480836</v>
       </c>
     </row>
     <row r="6">
@@ -18546,28 +18546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>300.6912185410545</v>
+        <v>341.7719417963473</v>
       </c>
       <c r="AB6" t="n">
-        <v>411.4189907681975</v>
+        <v>467.6274486796898</v>
       </c>
       <c r="AC6" t="n">
-        <v>372.1537397194601</v>
+        <v>422.9977412969457</v>
       </c>
       <c r="AD6" t="n">
-        <v>300691.2185410545</v>
+        <v>341771.9417963473</v>
       </c>
       <c r="AE6" t="n">
-        <v>411418.9907681975</v>
+        <v>467627.4486796898</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.605337950699004e-06</v>
+        <v>5.35336152944813e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.985416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>372153.7397194601</v>
+        <v>422997.7412969457</v>
       </c>
     </row>
     <row r="7">
@@ -18652,28 +18652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>291.4500553463945</v>
+        <v>332.5307786016874</v>
       </c>
       <c r="AB7" t="n">
-        <v>398.7748235939171</v>
+        <v>454.9832815054093</v>
       </c>
       <c r="AC7" t="n">
-        <v>360.7163141140929</v>
+        <v>411.5603156915784</v>
       </c>
       <c r="AD7" t="n">
-        <v>291450.0553463945</v>
+        <v>332530.7786016874</v>
       </c>
       <c r="AE7" t="n">
-        <v>398774.8235939171</v>
+        <v>454983.2815054093</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.673442406747918e-06</v>
+        <v>5.454485967706561e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.81875</v>
       </c>
       <c r="AH7" t="n">
-        <v>360716.3141140929</v>
+        <v>411560.3156915784</v>
       </c>
     </row>
     <row r="8">
@@ -18758,28 +18758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>284.3386993475507</v>
+        <v>325.4194226028436</v>
       </c>
       <c r="AB8" t="n">
-        <v>389.0447525854144</v>
+        <v>445.2532104969065</v>
       </c>
       <c r="AC8" t="n">
-        <v>351.9148674264013</v>
+        <v>402.7588690038868</v>
       </c>
       <c r="AD8" t="n">
-        <v>284338.6993475507</v>
+        <v>325419.4226028436</v>
       </c>
       <c r="AE8" t="n">
-        <v>389044.7525854143</v>
+        <v>445253.2104969065</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.724909472848809e-06</v>
+        <v>5.530906490682683e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.695833333333335</v>
       </c>
       <c r="AH8" t="n">
-        <v>351914.8674264013</v>
+        <v>402758.8690038868</v>
       </c>
     </row>
     <row r="9">
@@ -18864,28 +18864,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>278.1359479873871</v>
+        <v>319.2166712426799</v>
       </c>
       <c r="AB9" t="n">
-        <v>380.5578745283614</v>
+        <v>436.7663324398536</v>
       </c>
       <c r="AC9" t="n">
-        <v>344.2379650997053</v>
+        <v>395.0819666771908</v>
       </c>
       <c r="AD9" t="n">
-        <v>278135.9479873871</v>
+        <v>319216.6712426799</v>
       </c>
       <c r="AE9" t="n">
-        <v>380557.8745283614</v>
+        <v>436766.3324398536</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.767047161408754e-06</v>
+        <v>5.593474350883678e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>344237.9650997053</v>
+        <v>395081.9666771908</v>
       </c>
     </row>
     <row r="10">
@@ -18970,28 +18970,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>272.6482426476372</v>
+        <v>305.6664347901004</v>
       </c>
       <c r="AB10" t="n">
-        <v>373.0493539820426</v>
+        <v>418.2263011311923</v>
       </c>
       <c r="AC10" t="n">
-        <v>337.4460472160524</v>
+        <v>378.3113699355308</v>
       </c>
       <c r="AD10" t="n">
-        <v>272648.2426476372</v>
+        <v>305666.4347901004</v>
       </c>
       <c r="AE10" t="n">
-        <v>373049.3539820426</v>
+        <v>418226.3011311922</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.800477430930481e-06</v>
+        <v>5.643113059161219e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.522916666666665</v>
       </c>
       <c r="AH10" t="n">
-        <v>337446.0472160524</v>
+        <v>378311.3699355308</v>
       </c>
     </row>
     <row r="11">
@@ -19076,28 +19076,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>268.1890781329125</v>
+        <v>301.0366780747835</v>
       </c>
       <c r="AB11" t="n">
-        <v>366.948128368542</v>
+        <v>411.8916637428445</v>
       </c>
       <c r="AC11" t="n">
-        <v>331.9271140119803</v>
+        <v>372.5813014488076</v>
       </c>
       <c r="AD11" t="n">
-        <v>268189.0781329125</v>
+        <v>301036.6780747835</v>
       </c>
       <c r="AE11" t="n">
-        <v>366948.1283685419</v>
+        <v>411891.6637428445</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.822556957777389e-06</v>
+        <v>5.675897694395688e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.475</v>
       </c>
       <c r="AH11" t="n">
-        <v>331927.1140119803</v>
+        <v>372581.3014488075</v>
       </c>
     </row>
     <row r="12">
@@ -19182,28 +19182,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>264.3145687843946</v>
+        <v>297.1621687262657</v>
       </c>
       <c r="AB12" t="n">
-        <v>361.6468537466112</v>
+        <v>406.5903891209138</v>
       </c>
       <c r="AC12" t="n">
-        <v>327.1317855995809</v>
+        <v>367.7859730364082</v>
       </c>
       <c r="AD12" t="n">
-        <v>264314.5687843947</v>
+        <v>297162.1687262657</v>
       </c>
       <c r="AE12" t="n">
-        <v>361646.8537466112</v>
+        <v>406590.3891209138</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.84168218173633e-06</v>
+        <v>5.704295653084699e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.43125</v>
       </c>
       <c r="AH12" t="n">
-        <v>327131.7855995809</v>
+        <v>367785.9730364082</v>
       </c>
     </row>
     <row r="13">
@@ -19288,28 +19288,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>259.9212016552523</v>
+        <v>292.7688015971234</v>
       </c>
       <c r="AB13" t="n">
-        <v>355.6356550188402</v>
+        <v>400.5791903931428</v>
       </c>
       <c r="AC13" t="n">
-        <v>321.694287241618</v>
+        <v>362.3484746784453</v>
       </c>
       <c r="AD13" t="n">
-        <v>259921.2016552523</v>
+        <v>292768.8015971234</v>
       </c>
       <c r="AE13" t="n">
-        <v>355635.6550188402</v>
+        <v>400579.1903931428</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.863761708583239e-06</v>
+        <v>5.737080288319169e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.383333333333335</v>
       </c>
       <c r="AH13" t="n">
-        <v>321694.287241618</v>
+        <v>362348.4746784453</v>
       </c>
     </row>
     <row r="14">
@@ -19394,28 +19394,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>256.260838325047</v>
+        <v>289.1084382669212</v>
       </c>
       <c r="AB14" t="n">
-        <v>350.6273844264543</v>
+        <v>395.5709198009271</v>
       </c>
       <c r="AC14" t="n">
-        <v>317.163998965523</v>
+        <v>357.8181864023986</v>
       </c>
       <c r="AD14" t="n">
-        <v>256260.838325047</v>
+        <v>289108.4382669212</v>
       </c>
       <c r="AE14" t="n">
-        <v>350627.3844264543</v>
+        <v>395570.919800927</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.879777140028532e-06</v>
+        <v>5.760860692749805e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.35</v>
       </c>
       <c r="AH14" t="n">
-        <v>317163.998965523</v>
+        <v>357818.1864023986</v>
       </c>
     </row>
     <row r="15">
@@ -19500,28 +19500,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>256.6593776821338</v>
+        <v>289.506977624008</v>
       </c>
       <c r="AB15" t="n">
-        <v>351.1726835571358</v>
+        <v>396.1162189316087</v>
       </c>
       <c r="AC15" t="n">
-        <v>317.6572555125045</v>
+        <v>358.3114429493803</v>
       </c>
       <c r="AD15" t="n">
-        <v>256659.3776821338</v>
+        <v>289506.977624008</v>
       </c>
       <c r="AE15" t="n">
-        <v>351172.6835571358</v>
+        <v>396116.2189316087</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.875112451258058e-06</v>
+        <v>5.753934361362241e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.358333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>317657.2555125045</v>
+        <v>358311.4429493803</v>
       </c>
     </row>
     <row r="16">
@@ -19606,28 +19606,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>257.5113574256853</v>
+        <v>290.3589573675595</v>
       </c>
       <c r="AB16" t="n">
-        <v>352.3383998289559</v>
+        <v>397.2819352034294</v>
       </c>
       <c r="AC16" t="n">
-        <v>318.7117174594355</v>
+        <v>359.3659048963114</v>
       </c>
       <c r="AD16" t="n">
-        <v>257511.3574256853</v>
+        <v>290358.9573675595</v>
       </c>
       <c r="AE16" t="n">
-        <v>352338.3998289559</v>
+        <v>397281.9352034294</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.87464598238101e-06</v>
+        <v>5.753241728223484e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.360416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>318711.7174594355</v>
+        <v>359365.9048963114</v>
       </c>
     </row>
   </sheetData>
@@ -19903,28 +19903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>959.6579279799843</v>
+        <v>1034.884483074805</v>
       </c>
       <c r="AB2" t="n">
-        <v>1313.046314181993</v>
+        <v>1415.974605624111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1187.73101682854</v>
+        <v>1280.835976596186</v>
       </c>
       <c r="AD2" t="n">
-        <v>959657.9279799843</v>
+        <v>1034884.483074805</v>
       </c>
       <c r="AE2" t="n">
-        <v>1313046.314181993</v>
+        <v>1415974.605624111</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.80182990906811e-06</v>
+        <v>2.649487238482413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1187731.01682854</v>
+        <v>1280835.976596186</v>
       </c>
     </row>
     <row r="3">
@@ -20009,28 +20009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.8857949822175</v>
+        <v>516.8662395115056</v>
       </c>
       <c r="AB3" t="n">
-        <v>638.8137422422436</v>
+        <v>707.1991914288081</v>
       </c>
       <c r="AC3" t="n">
-        <v>577.8462552633614</v>
+        <v>639.705093159141</v>
       </c>
       <c r="AD3" t="n">
-        <v>466885.7949822175</v>
+        <v>516866.2395115055</v>
       </c>
       <c r="AE3" t="n">
-        <v>638813.7422422436</v>
+        <v>707199.1914288081</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811902818269223e-06</v>
+        <v>4.134741351202324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2875</v>
       </c>
       <c r="AH3" t="n">
-        <v>577846.2552633614</v>
+        <v>639705.093159141</v>
       </c>
     </row>
     <row r="4">
@@ -20115,28 +20115,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>388.9152561882328</v>
+        <v>430.6225354504457</v>
       </c>
       <c r="AB4" t="n">
-        <v>532.1310112469123</v>
+        <v>589.1967507287727</v>
       </c>
       <c r="AC4" t="n">
-        <v>481.3451743840712</v>
+        <v>532.9646397820512</v>
       </c>
       <c r="AD4" t="n">
-        <v>388915.2561882328</v>
+        <v>430622.5354504457</v>
       </c>
       <c r="AE4" t="n">
-        <v>532131.0112469123</v>
+        <v>589196.7507287727</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.171141418555231e-06</v>
+        <v>4.662981049210402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.00833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>481345.1743840712</v>
+        <v>532964.6397820512</v>
       </c>
     </row>
     <row r="5">
@@ -20221,28 +20221,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.2122178068948</v>
+        <v>393.8341562145362</v>
       </c>
       <c r="AB5" t="n">
-        <v>481.9122949097914</v>
+        <v>538.8612672694541</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.919261851754</v>
+        <v>487.4331042177952</v>
       </c>
       <c r="AD5" t="n">
-        <v>352212.2178068948</v>
+        <v>393834.1562145362</v>
       </c>
       <c r="AE5" t="n">
-        <v>481912.2949097914</v>
+        <v>538861.2672694541</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.353045951524481e-06</v>
+        <v>4.930461201636883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>435919.261851754</v>
+        <v>487433.1042177952</v>
       </c>
     </row>
     <row r="6">
@@ -20327,28 +20327,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>335.3279219416615</v>
+        <v>368.7620359367994</v>
       </c>
       <c r="AB6" t="n">
-        <v>458.8104564244169</v>
+        <v>504.556486201573</v>
       </c>
       <c r="AC6" t="n">
-        <v>415.0222304077897</v>
+        <v>456.40232330797</v>
       </c>
       <c r="AD6" t="n">
-        <v>335327.9219416615</v>
+        <v>368762.0359367994</v>
       </c>
       <c r="AE6" t="n">
-        <v>458810.4564244169</v>
+        <v>504556.486201573</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.471116314213902e-06</v>
+        <v>5.104076878463117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.143749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>415022.2304077897</v>
+        <v>456402.32330797</v>
       </c>
     </row>
     <row r="7">
@@ -20433,28 +20433,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.1889343083151</v>
+        <v>357.896124061977</v>
       </c>
       <c r="AB7" t="n">
-        <v>432.6236491919294</v>
+        <v>489.6892662042414</v>
       </c>
       <c r="AC7" t="n">
-        <v>391.3346553041561</v>
+        <v>442.9540099209095</v>
       </c>
       <c r="AD7" t="n">
-        <v>316188.9343083152</v>
+        <v>357896.124061977</v>
       </c>
       <c r="AE7" t="n">
-        <v>432623.6491919294</v>
+        <v>489689.2662042414</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.546681346335131e-06</v>
+        <v>5.215190911631906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.950000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>391334.6553041561</v>
+        <v>442954.0099209095</v>
       </c>
     </row>
     <row r="8">
@@ -20539,28 +20539,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>307.658018779308</v>
+        <v>349.3652085329699</v>
       </c>
       <c r="AB8" t="n">
-        <v>420.9512742077108</v>
+        <v>478.0168912200227</v>
       </c>
       <c r="AC8" t="n">
-        <v>380.77627540615</v>
+        <v>432.3956300229034</v>
       </c>
       <c r="AD8" t="n">
-        <v>307658.018779308</v>
+        <v>349365.2085329699</v>
       </c>
       <c r="AE8" t="n">
-        <v>420951.2742077108</v>
+        <v>478016.8912200227</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.606249748672633e-06</v>
+        <v>5.302782820843594e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>380776.27540615</v>
+        <v>432395.6300229034</v>
       </c>
     </row>
     <row r="9">
@@ -20645,28 +20645,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>302.0617278740513</v>
+        <v>343.7689176277132</v>
       </c>
       <c r="AB9" t="n">
-        <v>413.2941821002083</v>
+        <v>470.3597991125203</v>
       </c>
       <c r="AC9" t="n">
-        <v>373.8499654225914</v>
+        <v>425.4693200393448</v>
       </c>
       <c r="AD9" t="n">
-        <v>302061.7278740513</v>
+        <v>343768.9176277132</v>
       </c>
       <c r="AE9" t="n">
-        <v>413294.1821002084</v>
+        <v>470359.7991125203</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.643879915878165e-06</v>
+        <v>5.358115817199826e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.710416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>373849.9654225914</v>
+        <v>425469.3200393448</v>
       </c>
     </row>
     <row r="10">
@@ -20751,28 +20751,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>296.6868180769369</v>
+        <v>338.3940078305988</v>
       </c>
       <c r="AB10" t="n">
-        <v>405.9399933915116</v>
+        <v>463.0056104038236</v>
       </c>
       <c r="AC10" t="n">
-        <v>367.1976501625839</v>
+        <v>418.8170047793374</v>
       </c>
       <c r="AD10" t="n">
-        <v>296686.8180769369</v>
+        <v>338394.0078305987</v>
       </c>
       <c r="AE10" t="n">
-        <v>405939.9933915116</v>
+        <v>463005.6104038236</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.678006059416785e-06</v>
+        <v>5.408296348308312e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.629166666666668</v>
       </c>
       <c r="AH10" t="n">
-        <v>367197.6501625839</v>
+        <v>418817.0047793374</v>
       </c>
     </row>
     <row r="11">
@@ -20857,28 +20857,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>292.3590591475103</v>
+        <v>325.8784244886688</v>
       </c>
       <c r="AB11" t="n">
-        <v>400.0185626970211</v>
+        <v>445.8812371268265</v>
       </c>
       <c r="AC11" t="n">
-        <v>361.8413525027955</v>
+        <v>403.3269576536882</v>
       </c>
       <c r="AD11" t="n">
-        <v>292359.0591475103</v>
+        <v>325878.4244886688</v>
       </c>
       <c r="AE11" t="n">
-        <v>400018.5626970211</v>
+        <v>445881.2371268265</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.703295969360583e-06</v>
+        <v>5.44548370618335e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.570833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>361841.3525027955</v>
+        <v>403326.9576536882</v>
       </c>
     </row>
     <row r="12">
@@ -20963,28 +20963,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>287.9261810491411</v>
+        <v>321.4455463902996</v>
       </c>
       <c r="AB12" t="n">
-        <v>393.953303318053</v>
+        <v>439.8159777478584</v>
       </c>
       <c r="AC12" t="n">
-        <v>356.354952966311</v>
+        <v>397.8405581172037</v>
       </c>
       <c r="AD12" t="n">
-        <v>287926.1810491411</v>
+        <v>321445.5463902996</v>
       </c>
       <c r="AE12" t="n">
-        <v>393953.303318053</v>
+        <v>439815.9777478584</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.726452995333219e-06</v>
+        <v>5.479534780864108e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.516666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>356354.952966311</v>
+        <v>397840.5581172037</v>
       </c>
     </row>
     <row r="13">
@@ -21069,28 +21069,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>283.8748538859958</v>
+        <v>317.223627026562</v>
       </c>
       <c r="AB13" t="n">
-        <v>388.4100987614973</v>
+        <v>434.0393614164557</v>
       </c>
       <c r="AC13" t="n">
-        <v>351.3407840726966</v>
+        <v>392.6152539409382</v>
       </c>
       <c r="AD13" t="n">
-        <v>283874.8538859958</v>
+        <v>317223.627026562</v>
       </c>
       <c r="AE13" t="n">
-        <v>388410.0987614973</v>
+        <v>434039.3614164557</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.748543579320272e-06</v>
+        <v>5.512017713947727e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>351340.7840726966</v>
+        <v>392615.2539409382</v>
       </c>
     </row>
     <row r="14">
@@ -21175,28 +21175,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>280.7225802144986</v>
+        <v>314.0713533550648</v>
       </c>
       <c r="AB14" t="n">
-        <v>384.0970188556556</v>
+        <v>429.726281510614</v>
       </c>
       <c r="AC14" t="n">
-        <v>347.4393384596227</v>
+        <v>388.7138083278642</v>
       </c>
       <c r="AD14" t="n">
-        <v>280722.5802144986</v>
+        <v>314071.3533550649</v>
       </c>
       <c r="AE14" t="n">
-        <v>384097.0188556556</v>
+        <v>429726.281510614</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.763016720553168e-06</v>
+        <v>5.533299635623201e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.435416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>347439.3384596227</v>
+        <v>388713.8083278642</v>
       </c>
     </row>
     <row r="15">
@@ -21281,28 +21281,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>277.5343016256139</v>
+        <v>310.8830747661801</v>
       </c>
       <c r="AB15" t="n">
-        <v>379.7346754334191</v>
+        <v>425.3639380883776</v>
       </c>
       <c r="AC15" t="n">
-        <v>343.4933309710171</v>
+        <v>384.7678008392587</v>
       </c>
       <c r="AD15" t="n">
-        <v>277534.3016256139</v>
+        <v>310883.0747661801</v>
       </c>
       <c r="AE15" t="n">
-        <v>379734.6754334191</v>
+        <v>425363.9380883776</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.775966373235234e-06</v>
+        <v>5.552341355017045e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.40625</v>
       </c>
       <c r="AH15" t="n">
-        <v>343493.3309710171</v>
+        <v>384767.8008392587</v>
       </c>
     </row>
     <row r="16">
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>274.1891736474033</v>
+        <v>307.5379467879695</v>
       </c>
       <c r="AB16" t="n">
-        <v>375.1577237570004</v>
+        <v>420.7869864119589</v>
       </c>
       <c r="AC16" t="n">
-        <v>339.3531971388038</v>
+        <v>380.6276670070454</v>
       </c>
       <c r="AD16" t="n">
-        <v>274189.1736474033</v>
+        <v>307537.9467879696</v>
       </c>
       <c r="AE16" t="n">
-        <v>375157.7237570004</v>
+        <v>420786.9864119589</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.782212676293642e-06</v>
+        <v>5.561526184371724e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.391666666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>339353.1971388038</v>
+        <v>380627.6670070454</v>
       </c>
     </row>
     <row r="17">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>271.5410853609409</v>
+        <v>304.8898585015072</v>
       </c>
       <c r="AB17" t="n">
-        <v>371.5344925380526</v>
+        <v>417.163755193011</v>
       </c>
       <c r="AC17" t="n">
-        <v>336.0757620221554</v>
+        <v>377.3502318903969</v>
       </c>
       <c r="AD17" t="n">
-        <v>271541.085360941</v>
+        <v>304889.8585015072</v>
       </c>
       <c r="AE17" t="n">
-        <v>371534.4925380526</v>
+        <v>417163.755193011</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.797599910657038e-06</v>
+        <v>5.584152227416175e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.358333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>336075.7620221554</v>
+        <v>377350.2318903969</v>
       </c>
     </row>
     <row r="18">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>269.6422523176907</v>
+        <v>302.9910254582569</v>
       </c>
       <c r="AB18" t="n">
-        <v>368.936425397676</v>
+        <v>414.5656880526344</v>
       </c>
       <c r="AC18" t="n">
-        <v>333.7256507632461</v>
+        <v>375.0001206314877</v>
       </c>
       <c r="AD18" t="n">
-        <v>269642.2523176907</v>
+        <v>302991.0254582569</v>
       </c>
       <c r="AE18" t="n">
-        <v>368936.425397676</v>
+        <v>414565.6880526344</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.80506500455611e-06</v>
+        <v>5.595129218596155e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>333725.6507632461</v>
+        <v>375000.1206314877</v>
       </c>
     </row>
     <row r="19">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>270.4042242178933</v>
+        <v>303.7529973584595</v>
       </c>
       <c r="AB19" t="n">
-        <v>369.9789889673609</v>
+        <v>415.6082516223194</v>
       </c>
       <c r="AC19" t="n">
-        <v>334.6687135290875</v>
+        <v>375.9431833973291</v>
       </c>
       <c r="AD19" t="n">
-        <v>270404.2242178933</v>
+        <v>303752.9973584595</v>
       </c>
       <c r="AE19" t="n">
-        <v>369978.9889673609</v>
+        <v>415608.2516223193</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.805369702266276e-06</v>
+        <v>5.595577259052481e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>334668.7135290875</v>
+        <v>375943.1833973291</v>
       </c>
     </row>
   </sheetData>
@@ -22002,28 +22002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1527.180162518147</v>
+        <v>1621.496858463747</v>
       </c>
       <c r="AB2" t="n">
-        <v>2089.555272791049</v>
+        <v>2218.603537142779</v>
       </c>
       <c r="AC2" t="n">
-        <v>1890.131050265116</v>
+        <v>2006.863129387493</v>
       </c>
       <c r="AD2" t="n">
-        <v>1527180.162518147</v>
+        <v>1621496.858463747</v>
       </c>
       <c r="AE2" t="n">
-        <v>2089555.272791049</v>
+        <v>2218603.537142779</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.386981569058774e-06</v>
+        <v>2.006646801365932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1890131.050265116</v>
+        <v>2006863.129387493</v>
       </c>
     </row>
     <row r="3">
@@ -22108,28 +22108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.4013333194549</v>
+        <v>635.8080532234095</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.6036862149052</v>
+        <v>869.9406282919173</v>
       </c>
       <c r="AC3" t="n">
-        <v>723.290632653376</v>
+        <v>786.9147156970762</v>
       </c>
       <c r="AD3" t="n">
-        <v>584401.3333194549</v>
+        <v>635808.0532234095</v>
       </c>
       <c r="AE3" t="n">
-        <v>799603.6862149052</v>
+        <v>869940.6282919173</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485743897727896e-06</v>
+        <v>3.596305929844117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.325</v>
       </c>
       <c r="AH3" t="n">
-        <v>723290.632653376</v>
+        <v>786914.7156970762</v>
       </c>
     </row>
     <row r="4">
@@ -22214,28 +22214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.9394930333887</v>
+        <v>512.346123428792</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.6777495835283</v>
+        <v>701.014569190992</v>
       </c>
       <c r="AC4" t="n">
-        <v>570.4867503250565</v>
+        <v>634.1107225875303</v>
       </c>
       <c r="AD4" t="n">
-        <v>460939.4930333886</v>
+        <v>512346.123428792</v>
       </c>
       <c r="AE4" t="n">
-        <v>630677.7495835284</v>
+        <v>701014.569190992</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887486226679187e-06</v>
+        <v>4.177535686134588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.61041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>570486.7503250565</v>
+        <v>634110.7225875303</v>
       </c>
     </row>
     <row r="5">
@@ -22320,28 +22320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.2468232744677</v>
+        <v>454.1567993161135</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.6860465335068</v>
+        <v>621.3973688082245</v>
       </c>
       <c r="AC5" t="n">
-        <v>508.9840799871745</v>
+        <v>562.0920760658515</v>
       </c>
       <c r="AD5" t="n">
-        <v>411246.8232744677</v>
+        <v>454156.7993161135</v>
       </c>
       <c r="AE5" t="n">
-        <v>562686.0465335068</v>
+        <v>621397.3688082246</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.096445175961685e-06</v>
+        <v>4.479851748978204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.893750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>508984.0799871745</v>
+        <v>562092.0760658515</v>
       </c>
     </row>
     <row r="6">
@@ -22426,28 +22426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.2518038662429</v>
+        <v>430.9911877072965</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.223246510515</v>
+        <v>589.7011570103857</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.5240454400598</v>
+        <v>533.4209062360858</v>
       </c>
       <c r="AD6" t="n">
-        <v>388251.8038662429</v>
+        <v>430991.1877072966</v>
       </c>
       <c r="AE6" t="n">
-        <v>531223.246510515</v>
+        <v>589701.1570103858</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.229525998692621e-06</v>
+        <v>4.672389424469741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.485416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>480524.0454400598</v>
+        <v>533420.9062360858</v>
       </c>
     </row>
     <row r="7">
@@ -22532,28 +22532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>374.2403733544584</v>
+        <v>408.5684436963262</v>
       </c>
       <c r="AB7" t="n">
-        <v>512.0521891436035</v>
+        <v>559.0213694329261</v>
       </c>
       <c r="AC7" t="n">
-        <v>463.1826468814984</v>
+        <v>505.6691545256666</v>
       </c>
       <c r="AD7" t="n">
-        <v>374240.3733544584</v>
+        <v>408568.4436963262</v>
       </c>
       <c r="AE7" t="n">
-        <v>512052.1891436035</v>
+        <v>559021.3694329262</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.315991770809516e-06</v>
+        <v>4.797485726336064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.237500000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>463182.6468814984</v>
+        <v>505669.1545256666</v>
       </c>
     </row>
     <row r="8">
@@ -22638,28 +22638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>364.254586986614</v>
+        <v>398.5826573284818</v>
       </c>
       <c r="AB8" t="n">
-        <v>498.3891956933162</v>
+        <v>545.3583759826388</v>
       </c>
       <c r="AC8" t="n">
-        <v>450.8236303499747</v>
+        <v>493.310137994143</v>
       </c>
       <c r="AD8" t="n">
-        <v>364254.586986614</v>
+        <v>398582.6573284818</v>
       </c>
       <c r="AE8" t="n">
-        <v>498389.1956933162</v>
+        <v>545358.3759826388</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.378782391037262e-06</v>
+        <v>4.888329469358038e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.066666666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>450823.6303499747</v>
+        <v>493310.1379941429</v>
       </c>
     </row>
     <row r="9">
@@ -22744,28 +22744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>347.2453474734818</v>
+        <v>390.0699826605561</v>
       </c>
       <c r="AB9" t="n">
-        <v>475.1164037967616</v>
+        <v>533.7109589492817</v>
       </c>
       <c r="AC9" t="n">
-        <v>429.7719610484586</v>
+        <v>482.7743340951969</v>
       </c>
       <c r="AD9" t="n">
-        <v>347245.3474734818</v>
+        <v>390069.9826605561</v>
       </c>
       <c r="AE9" t="n">
-        <v>475116.4037967616</v>
+        <v>533710.9589492817</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.432602922661044e-06</v>
+        <v>4.966195534805444e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>429771.9610484586</v>
+        <v>482774.3340951969</v>
       </c>
     </row>
     <row r="10">
@@ -22850,28 +22850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>341.7210999646871</v>
+        <v>384.5457351517613</v>
       </c>
       <c r="AB10" t="n">
-        <v>467.5578846426288</v>
+        <v>526.1524397951489</v>
       </c>
       <c r="AC10" t="n">
-        <v>422.9348163539481</v>
+        <v>475.9371894006864</v>
       </c>
       <c r="AD10" t="n">
-        <v>341721.0999646871</v>
+        <v>384545.7351517613</v>
       </c>
       <c r="AE10" t="n">
-        <v>467557.8846426288</v>
+        <v>526152.4397951489</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.465395213787009e-06</v>
+        <v>5.013638520037059e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.839583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>422934.8163539481</v>
+        <v>475937.1894006864</v>
       </c>
     </row>
     <row r="11">
@@ -22956,28 +22956,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>336.3188833765547</v>
+        <v>379.143518563629</v>
       </c>
       <c r="AB11" t="n">
-        <v>460.1663335777707</v>
+        <v>518.7608887302908</v>
       </c>
       <c r="AC11" t="n">
-        <v>416.2487045486129</v>
+        <v>469.2510775953512</v>
       </c>
       <c r="AD11" t="n">
-        <v>336318.8833765547</v>
+        <v>379143.518563629</v>
       </c>
       <c r="AE11" t="n">
-        <v>460166.3335777707</v>
+        <v>518760.8887302908</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.500540315038605e-06</v>
+        <v>5.064485486271841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.752083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>416248.7045486129</v>
+        <v>469251.0775953512</v>
       </c>
     </row>
     <row r="12">
@@ -23062,28 +23062,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>331.4625541591647</v>
+        <v>374.287189346239</v>
       </c>
       <c r="AB12" t="n">
-        <v>453.5216896964133</v>
+        <v>512.1162448489334</v>
       </c>
       <c r="AC12" t="n">
-        <v>410.2382161534761</v>
+        <v>463.2405892002143</v>
       </c>
       <c r="AD12" t="n">
-        <v>331462.5541591647</v>
+        <v>374287.189346239</v>
       </c>
       <c r="AE12" t="n">
-        <v>453521.6896964133</v>
+        <v>512116.2448489334</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.528479935280459e-06</v>
+        <v>5.104907760684429e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.683333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>410238.2161534761</v>
+        <v>463240.5892002144</v>
       </c>
     </row>
     <row r="13">
@@ -23168,28 +23168,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>327.7378376864197</v>
+        <v>370.5624728734939</v>
       </c>
       <c r="AB13" t="n">
-        <v>448.4253682955101</v>
+        <v>507.0199234480302</v>
       </c>
       <c r="AC13" t="n">
-        <v>405.6282805143431</v>
+        <v>458.6306535610814</v>
       </c>
       <c r="AD13" t="n">
-        <v>327737.8376864197</v>
+        <v>370562.4728734939</v>
       </c>
       <c r="AE13" t="n">
-        <v>448425.3682955101</v>
+        <v>507019.9234480303</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.550096378309683e-06</v>
+        <v>5.136181836151011e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.629166666666668</v>
       </c>
       <c r="AH13" t="n">
-        <v>405628.2805143431</v>
+        <v>458630.6535610814</v>
       </c>
     </row>
     <row r="14">
@@ -23274,28 +23274,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>324.6400344180246</v>
+        <v>367.4646696050988</v>
       </c>
       <c r="AB14" t="n">
-        <v>444.1868171982571</v>
+        <v>502.7813723507771</v>
       </c>
       <c r="AC14" t="n">
-        <v>401.794250784968</v>
+        <v>454.7966238317063</v>
       </c>
       <c r="AD14" t="n">
-        <v>324640.0344180246</v>
+        <v>367464.6696050988</v>
       </c>
       <c r="AE14" t="n">
-        <v>444186.8171982571</v>
+        <v>502781.3723507772</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.564360289696314e-06</v>
+        <v>5.156818470982699e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.595833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>401794.250784968</v>
+        <v>454796.6238317062</v>
       </c>
     </row>
     <row r="15">
@@ -23380,28 +23380,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>322.1079614022091</v>
+        <v>356.5212830900974</v>
       </c>
       <c r="AB15" t="n">
-        <v>440.7223231908409</v>
+        <v>487.8081481328126</v>
       </c>
       <c r="AC15" t="n">
-        <v>398.6604032231717</v>
+        <v>441.2524231180522</v>
       </c>
       <c r="AD15" t="n">
-        <v>322107.9614022091</v>
+        <v>356521.2830900974</v>
       </c>
       <c r="AE15" t="n">
-        <v>440722.3231908409</v>
+        <v>487808.1481328126</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.577300745387278e-06</v>
+        <v>5.175540366500109e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.564583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>398660.4032231717</v>
+        <v>441252.4231180522</v>
       </c>
     </row>
     <row r="16">
@@ -23486,28 +23486,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>318.8674876781632</v>
+        <v>353.2808093660515</v>
       </c>
       <c r="AB16" t="n">
-        <v>436.2885640819901</v>
+        <v>483.374389023962</v>
       </c>
       <c r="AC16" t="n">
-        <v>394.6497958608497</v>
+        <v>437.2418157557302</v>
       </c>
       <c r="AD16" t="n">
-        <v>318867.4876781632</v>
+        <v>353280.8093660515</v>
       </c>
       <c r="AE16" t="n">
-        <v>436288.5640819901</v>
+        <v>483374.389023962</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.593035163102427e-06</v>
+        <v>5.198304489458776e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.527083333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>394649.7958608497</v>
+        <v>437241.8157557301</v>
       </c>
     </row>
     <row r="17">
@@ -23592,28 +23592,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>315.7379100595276</v>
+        <v>349.9806395468237</v>
       </c>
       <c r="AB17" t="n">
-        <v>432.0065379169527</v>
+        <v>478.8589510840775</v>
       </c>
       <c r="AC17" t="n">
-        <v>390.776440263142</v>
+        <v>433.1573248753714</v>
       </c>
       <c r="AD17" t="n">
-        <v>315737.9100595276</v>
+        <v>349980.6395468237</v>
       </c>
       <c r="AE17" t="n">
-        <v>432006.5379169527</v>
+        <v>478858.9510840775</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.609945985880391e-06</v>
+        <v>5.222770602919027e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.487500000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>390776.440263142</v>
+        <v>433157.3248753714</v>
       </c>
     </row>
     <row r="18">
@@ -23698,28 +23698,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>313.5488672481403</v>
+        <v>347.7915967354364</v>
       </c>
       <c r="AB18" t="n">
-        <v>429.0113929686594</v>
+        <v>475.8638061357843</v>
       </c>
       <c r="AC18" t="n">
-        <v>388.0671477450016</v>
+        <v>430.448032357231</v>
       </c>
       <c r="AD18" t="n">
-        <v>313548.8672481403</v>
+        <v>347791.5967354364</v>
       </c>
       <c r="AE18" t="n">
-        <v>429011.3929686595</v>
+        <v>475863.8061357843</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.616710314991577e-06</v>
+        <v>5.232557048303127e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.470833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>388067.1477450016</v>
+        <v>430448.032357231</v>
       </c>
     </row>
     <row r="19">
@@ -23804,28 +23804,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>311.0194324114552</v>
+        <v>345.2621618987513</v>
       </c>
       <c r="AB19" t="n">
-        <v>425.5505086343177</v>
+        <v>472.4029218014426</v>
       </c>
       <c r="AC19" t="n">
-        <v>384.9365653541477</v>
+        <v>427.3174499663771</v>
       </c>
       <c r="AD19" t="n">
-        <v>311019.4324114552</v>
+        <v>345262.1618987513</v>
       </c>
       <c r="AE19" t="n">
-        <v>425550.5086343177</v>
+        <v>472402.9218014426</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.623033492204207e-06</v>
+        <v>5.241705247249134e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.456250000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>384936.5653541477</v>
+        <v>427317.4499663771</v>
       </c>
     </row>
     <row r="20">
@@ -23910,28 +23910,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>308.2732118928201</v>
+        <v>342.5159413801163</v>
       </c>
       <c r="AB20" t="n">
-        <v>421.7930085660226</v>
+        <v>468.6454217331475</v>
       </c>
       <c r="AC20" t="n">
-        <v>381.5376758186862</v>
+        <v>423.9185604309156</v>
       </c>
       <c r="AD20" t="n">
-        <v>308273.2118928201</v>
+        <v>342515.9413801163</v>
       </c>
       <c r="AE20" t="n">
-        <v>421793.0085660226</v>
+        <v>468645.4217331475</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.638326758020801e-06</v>
+        <v>5.263831123769708e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.420833333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>381537.6758186862</v>
+        <v>423918.5604309156</v>
       </c>
     </row>
     <row r="21">
@@ -24016,28 +24016,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>305.7583793210024</v>
+        <v>340.0011088082985</v>
       </c>
       <c r="AB21" t="n">
-        <v>418.3521036946787</v>
+        <v>465.2045168618036</v>
       </c>
       <c r="AC21" t="n">
-        <v>378.425166078923</v>
+        <v>420.8060506911525</v>
       </c>
       <c r="AD21" t="n">
-        <v>305758.3793210024</v>
+        <v>340001.1088082985</v>
       </c>
       <c r="AE21" t="n">
-        <v>418352.1036946787</v>
+        <v>465204.5168618036</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.647002745359061e-06</v>
+        <v>5.27638330371888e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AH21" t="n">
-        <v>378425.166078923</v>
+        <v>420806.0506911525</v>
       </c>
     </row>
     <row r="22">
@@ -24122,28 +24122,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>303.3857381528668</v>
+        <v>337.6284676401629</v>
       </c>
       <c r="AB22" t="n">
-        <v>415.1057513748946</v>
+        <v>461.9581645420195</v>
       </c>
       <c r="AC22" t="n">
-        <v>375.4886410682551</v>
+        <v>417.8695256804845</v>
       </c>
       <c r="AD22" t="n">
-        <v>303385.7381528668</v>
+        <v>337628.4676401629</v>
       </c>
       <c r="AE22" t="n">
-        <v>415105.7513748946</v>
+        <v>461958.1645420195</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.653767074470247e-06</v>
+        <v>5.28616974910298e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>375488.6410682551</v>
+        <v>417869.5256804845</v>
       </c>
     </row>
     <row r="23">
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>302.6979162061244</v>
+        <v>336.9406456934205</v>
       </c>
       <c r="AB23" t="n">
-        <v>414.1646430427991</v>
+        <v>461.017056209924</v>
       </c>
       <c r="AC23" t="n">
-        <v>374.637350794521</v>
+        <v>417.0182354067503</v>
       </c>
       <c r="AD23" t="n">
-        <v>302697.9162061244</v>
+        <v>336940.6456934205</v>
       </c>
       <c r="AE23" t="n">
-        <v>414164.6430427991</v>
+        <v>461017.056209924</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.651267213711765e-06</v>
+        <v>5.282553019287117e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.389583333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>374637.3507945209</v>
+        <v>417018.2354067503</v>
       </c>
     </row>
     <row r="24">
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>300.8810070203307</v>
+        <v>335.123736507627</v>
       </c>
       <c r="AB24" t="n">
-        <v>411.6786677384202</v>
+        <v>458.5310809055451</v>
       </c>
       <c r="AC24" t="n">
-        <v>372.3886334841037</v>
+        <v>414.7695180963331</v>
       </c>
       <c r="AD24" t="n">
-        <v>300881.0070203308</v>
+        <v>335123.7365076269</v>
       </c>
       <c r="AE24" t="n">
-        <v>411678.6677384202</v>
+        <v>458531.0809055451</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.658913846620061e-06</v>
+        <v>5.293615957547404e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.372916666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>372388.6334841037</v>
+        <v>414769.5180963331</v>
       </c>
     </row>
     <row r="25">
@@ -24440,28 +24440,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>298.5337856112686</v>
+        <v>332.7765150985647</v>
       </c>
       <c r="AB25" t="n">
-        <v>408.467095854441</v>
+        <v>455.3195090215659</v>
       </c>
       <c r="AC25" t="n">
-        <v>369.483569513262</v>
+        <v>411.8644541254914</v>
       </c>
       <c r="AD25" t="n">
-        <v>298533.7856112686</v>
+        <v>332776.5150985647</v>
       </c>
       <c r="AE25" t="n">
-        <v>408467.095854441</v>
+        <v>455319.5090215658</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.666854580794062e-06</v>
+        <v>5.305104393433087e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.354166666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>369483.569513262</v>
+        <v>411864.4541254914</v>
       </c>
     </row>
     <row r="26">
@@ -24546,28 +24546,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>299.0016858024604</v>
+        <v>333.2444152897565</v>
       </c>
       <c r="AB26" t="n">
-        <v>409.1072975383292</v>
+        <v>455.9597107054541</v>
       </c>
       <c r="AC26" t="n">
-        <v>370.0626712469686</v>
+        <v>412.4435558591981</v>
       </c>
       <c r="AD26" t="n">
-        <v>299001.6858024604</v>
+        <v>333244.4152897566</v>
       </c>
       <c r="AE26" t="n">
-        <v>409107.2975383293</v>
+        <v>455959.7107054541</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.666854580794062e-06</v>
+        <v>5.305104393433087e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>8.354166666666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>370062.6712469687</v>
+        <v>412443.555859198</v>
       </c>
     </row>
     <row r="27">
@@ -24652,28 +24652,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>299.7122541925252</v>
+        <v>333.9549836798213</v>
       </c>
       <c r="AB27" t="n">
-        <v>410.0795285576808</v>
+        <v>456.9319417248057</v>
       </c>
       <c r="AC27" t="n">
-        <v>370.9421139023681</v>
+        <v>413.3229985145974</v>
       </c>
       <c r="AD27" t="n">
-        <v>299712.2541925252</v>
+        <v>333954.9836798213</v>
       </c>
       <c r="AE27" t="n">
-        <v>410079.5285576808</v>
+        <v>456931.9417248056</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.666266378262654e-06</v>
+        <v>5.304253398182295e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.356250000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>370942.1139023681</v>
+        <v>413322.9985145974</v>
       </c>
     </row>
   </sheetData>
@@ -24949,28 +24949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.3609843022635</v>
+        <v>675.9463975886355</v>
       </c>
       <c r="AB2" t="n">
-        <v>847.4370230005344</v>
+        <v>924.8596818311976</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.5588229106945</v>
+        <v>836.5923718459434</v>
       </c>
       <c r="AD2" t="n">
-        <v>619360.9843022636</v>
+        <v>675946.3975886354</v>
       </c>
       <c r="AE2" t="n">
-        <v>847437.0230005344</v>
+        <v>924859.6818311976</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.301024110674864e-06</v>
+        <v>3.45541250352358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>766558.8229106945</v>
+        <v>836592.3718459434</v>
       </c>
     </row>
     <row r="3">
@@ -25055,28 +25055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.569266845867</v>
+        <v>404.9630616658411</v>
       </c>
       <c r="AB3" t="n">
-        <v>498.8197545594416</v>
+        <v>554.0883266805869</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.2130972822103</v>
+        <v>501.2069144500416</v>
       </c>
       <c r="AD3" t="n">
-        <v>364569.266845867</v>
+        <v>404963.061665841</v>
       </c>
       <c r="AE3" t="n">
-        <v>498819.7545594416</v>
+        <v>554088.3266805869</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.191589166783679e-06</v>
+        <v>4.792760346079236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>451213.0972822103</v>
+        <v>501206.9144500416</v>
       </c>
     </row>
     <row r="4">
@@ -25161,28 +25161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.0471532641435</v>
+        <v>353.355607229546</v>
       </c>
       <c r="AB4" t="n">
-        <v>428.3249257616964</v>
+        <v>483.476730760644</v>
       </c>
       <c r="AC4" t="n">
-        <v>387.4461960048083</v>
+        <v>437.3343901407007</v>
       </c>
       <c r="AD4" t="n">
-        <v>313047.1532641435</v>
+        <v>353355.607229546</v>
       </c>
       <c r="AE4" t="n">
-        <v>428324.9257616964</v>
+        <v>483476.7307606441</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.501330175044461e-06</v>
+        <v>5.257893652520081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.466666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>387446.1960048083</v>
+        <v>437334.3901407007</v>
       </c>
     </row>
     <row r="5">
@@ -25267,28 +25267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.2405506738398</v>
+        <v>325.6238771151865</v>
       </c>
       <c r="AB5" t="n">
-        <v>401.2246582920066</v>
+        <v>445.5329541805906</v>
       </c>
       <c r="AC5" t="n">
-        <v>362.9323400269613</v>
+        <v>403.0119143430229</v>
       </c>
       <c r="AD5" t="n">
-        <v>293240.5506738398</v>
+        <v>325623.8771151865</v>
       </c>
       <c r="AE5" t="n">
-        <v>401224.6582920066</v>
+        <v>445532.9541805906</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.662166415081262e-06</v>
+        <v>5.499418959562555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>362932.3400269613</v>
+        <v>403011.9143430229</v>
       </c>
     </row>
     <row r="6">
@@ -25373,28 +25373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>272.8481849264141</v>
+        <v>313.2418902378371</v>
       </c>
       <c r="AB6" t="n">
-        <v>373.322923828696</v>
+        <v>428.5913734802929</v>
       </c>
       <c r="AC6" t="n">
-        <v>337.6935079404989</v>
+        <v>387.6872143271036</v>
       </c>
       <c r="AD6" t="n">
-        <v>272848.1849264141</v>
+        <v>313241.8902378372</v>
       </c>
       <c r="AE6" t="n">
-        <v>373322.923828696</v>
+        <v>428591.3734802929</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.761436260563916e-06</v>
+        <v>5.648490959161471e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.810416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>337693.5079404989</v>
+        <v>387687.2143271036</v>
       </c>
     </row>
     <row r="7">
@@ -25479,28 +25479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>264.752039777337</v>
+        <v>305.14574508876</v>
       </c>
       <c r="AB7" t="n">
-        <v>362.2454208590129</v>
+        <v>417.5138705106098</v>
       </c>
       <c r="AC7" t="n">
-        <v>327.6732263068693</v>
+        <v>377.666932693474</v>
       </c>
       <c r="AD7" t="n">
-        <v>264752.0397773369</v>
+        <v>305145.74508876</v>
       </c>
       <c r="AE7" t="n">
-        <v>362245.4208590129</v>
+        <v>417513.8705106098</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.823320827699739e-06</v>
+        <v>5.741422061475539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.668750000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>327673.2263068692</v>
+        <v>377666.932693474</v>
       </c>
     </row>
     <row r="8">
@@ -25585,28 +25585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>258.5113391879792</v>
+        <v>290.9799169753466</v>
       </c>
       <c r="AB8" t="n">
-        <v>353.7066189923747</v>
+        <v>398.1315595336081</v>
       </c>
       <c r="AC8" t="n">
-        <v>319.9493557060994</v>
+        <v>360.1344422728731</v>
       </c>
       <c r="AD8" t="n">
-        <v>258511.3391879792</v>
+        <v>290979.9169753466</v>
       </c>
       <c r="AE8" t="n">
-        <v>353706.6189923747</v>
+        <v>398131.5595336081</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.8667513850984e-06</v>
+        <v>5.806641061300064e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.570833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>319949.3557060994</v>
+        <v>360134.4422728731</v>
       </c>
     </row>
     <row r="9">
@@ -25691,28 +25691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>252.6963379318582</v>
+        <v>284.9943235186365</v>
       </c>
       <c r="AB9" t="n">
-        <v>345.750277733837</v>
+        <v>389.941806500391</v>
       </c>
       <c r="AC9" t="n">
-        <v>312.7523564905853</v>
+        <v>352.7263077747556</v>
       </c>
       <c r="AD9" t="n">
-        <v>252696.3379318582</v>
+        <v>284994.3235186365</v>
       </c>
       <c r="AE9" t="n">
-        <v>345750.277733837</v>
+        <v>389941.806500391</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.901591282791831e-06</v>
+        <v>5.858959599620838e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.49375</v>
       </c>
       <c r="AH9" t="n">
-        <v>312752.3564905853</v>
+        <v>352726.3077747556</v>
       </c>
     </row>
     <row r="10">
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>247.0340187682486</v>
+        <v>279.3320043550268</v>
       </c>
       <c r="AB10" t="n">
-        <v>338.002842850299</v>
+        <v>382.194371616849</v>
       </c>
       <c r="AC10" t="n">
-        <v>305.7443259187365</v>
+        <v>345.7182772029057</v>
       </c>
       <c r="AD10" t="n">
-        <v>247034.0187682486</v>
+        <v>279332.0043550268</v>
       </c>
       <c r="AE10" t="n">
-        <v>338002.842850299</v>
+        <v>382194.371616849</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.9353175764494e-06</v>
+        <v>5.909605855894828e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.422916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>305744.3259187365</v>
+        <v>345718.2772029057</v>
       </c>
     </row>
     <row r="11">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>243.0480227192516</v>
+        <v>275.3460083060297</v>
       </c>
       <c r="AB11" t="n">
-        <v>332.5490272063292</v>
+        <v>376.7405559728763</v>
       </c>
       <c r="AC11" t="n">
-        <v>300.8110147853471</v>
+        <v>340.7849660695155</v>
       </c>
       <c r="AD11" t="n">
-        <v>243048.0227192516</v>
+        <v>275346.0083060297</v>
       </c>
       <c r="AE11" t="n">
-        <v>332549.0272063292</v>
+        <v>376740.5559728763</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.954726103931585e-06</v>
+        <v>5.938751342995898e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.38125</v>
       </c>
       <c r="AH11" t="n">
-        <v>300811.0147853471</v>
+        <v>340784.9660695154</v>
       </c>
     </row>
     <row r="12">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>242.19501086727</v>
+        <v>274.4929964540481</v>
       </c>
       <c r="AB12" t="n">
-        <v>331.3818987582216</v>
+        <v>375.5734275247682</v>
       </c>
       <c r="AC12" t="n">
-        <v>299.7552754382514</v>
+        <v>339.7292267224198</v>
       </c>
       <c r="AD12" t="n">
-        <v>242195.01086727</v>
+        <v>274492.9964540481</v>
       </c>
       <c r="AE12" t="n">
-        <v>331381.8987582216</v>
+        <v>375573.4275247682</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.958226002330013e-06</v>
+        <v>5.944007086571501e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.372916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>299755.2754382514</v>
+        <v>339729.2267224197</v>
       </c>
     </row>
   </sheetData>
@@ -26306,28 +26306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.7715161001755</v>
+        <v>484.8354167066375</v>
       </c>
       <c r="AB2" t="n">
-        <v>598.9783014444999</v>
+        <v>663.3732065670174</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.8126530259622</v>
+        <v>600.0617987824033</v>
       </c>
       <c r="AD2" t="n">
-        <v>437771.5161001755</v>
+        <v>484835.4167066375</v>
       </c>
       <c r="AE2" t="n">
-        <v>598978.3014445</v>
+        <v>663373.2065670174</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.764626347393502e-06</v>
+        <v>4.240236672187546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>541812.6530259622</v>
+        <v>600061.7987824033</v>
       </c>
     </row>
     <row r="3">
@@ -26412,28 +26412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.9153650714881</v>
+        <v>329.2063250318903</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.6749926540337</v>
+        <v>450.4346174666725</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.8168880919808</v>
+        <v>407.4457697646087</v>
       </c>
       <c r="AD3" t="n">
-        <v>289915.3650714881</v>
+        <v>329206.3250318904</v>
       </c>
       <c r="AE3" t="n">
-        <v>396674.9926540337</v>
+        <v>450434.6174666725</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.54232768697977e-06</v>
+        <v>5.433033573378949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.745833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>358816.8880919808</v>
+        <v>407445.7697646087</v>
       </c>
     </row>
     <row r="4">
@@ -26518,28 +26518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.3885458159307</v>
+        <v>292.8214032928036</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.643340034136</v>
+        <v>400.6511623537954</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.5103616168576</v>
+        <v>362.4135777361864</v>
       </c>
       <c r="AD4" t="n">
-        <v>261388.5458159307</v>
+        <v>292821.4032928036</v>
       </c>
       <c r="AE4" t="n">
-        <v>357643.340034136</v>
+        <v>400651.1623537954</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.804986247227849e-06</v>
+        <v>5.835885286225395e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.072916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>323510.3616168576</v>
+        <v>362413.5777361864</v>
       </c>
     </row>
     <row r="5">
@@ -26624,28 +26624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.8580927546333</v>
+        <v>278.0637118604669</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.8161801820771</v>
+        <v>380.4590378726762</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.6253026349865</v>
+        <v>344.1485612757205</v>
       </c>
       <c r="AD5" t="n">
-        <v>238858.0927546333</v>
+        <v>278063.7118604669</v>
       </c>
       <c r="AE5" t="n">
-        <v>326816.1801820771</v>
+        <v>380459.0378726762</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.94186698588079e-06</v>
+        <v>6.045825674118874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>295625.3026349865</v>
+        <v>344148.5612757205</v>
       </c>
     </row>
     <row r="6">
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.2232234957653</v>
+        <v>268.4288426015987</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.633327001668</v>
+        <v>367.2761846922602</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.7006024598609</v>
+        <v>332.2238611005929</v>
       </c>
       <c r="AD6" t="n">
-        <v>229223.2234957653</v>
+        <v>268428.8426015987</v>
       </c>
       <c r="AE6" t="n">
-        <v>313633.327001668</v>
+        <v>367276.1846922602</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.021575987445034e-06</v>
+        <v>6.168079096124642e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.585416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>283700.6024598608</v>
+        <v>332223.8611005929</v>
       </c>
     </row>
     <row r="7">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>221.0751432213871</v>
+        <v>252.4226598436879</v>
       </c>
       <c r="AB7" t="n">
-        <v>302.4847641023377</v>
+        <v>345.3758192997774</v>
       </c>
       <c r="AC7" t="n">
-        <v>273.6160427565328</v>
+        <v>312.4136358439166</v>
       </c>
       <c r="AD7" t="n">
-        <v>221075.1432213871</v>
+        <v>252422.6598436879</v>
       </c>
       <c r="AE7" t="n">
-        <v>302484.7641023378</v>
+        <v>345375.8192997774</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.080570591513372e-06</v>
+        <v>6.25856187831602e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.460416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>273616.0427565328</v>
+        <v>312413.6358439166</v>
       </c>
     </row>
     <row r="8">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>219.1712808898324</v>
+        <v>250.5187975121331</v>
       </c>
       <c r="AB8" t="n">
-        <v>299.8798156678276</v>
+        <v>342.7708708652672</v>
       </c>
       <c r="AC8" t="n">
-        <v>271.2597069445433</v>
+        <v>310.0573000319271</v>
       </c>
       <c r="AD8" t="n">
-        <v>219171.2808898324</v>
+        <v>250518.7975121331</v>
       </c>
       <c r="AE8" t="n">
-        <v>299879.8156678276</v>
+        <v>342770.8708652672</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.09449066663062e-06</v>
+        <v>6.279911748271289e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.43125</v>
       </c>
       <c r="AH8" t="n">
-        <v>271259.7069445433</v>
+        <v>310057.3000319271</v>
       </c>
     </row>
   </sheetData>
@@ -50700,28 +50700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.1806588839253</v>
+        <v>384.0196272238816</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.7136969626936</v>
+        <v>525.43259571798</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.5529511473259</v>
+        <v>475.286046231935</v>
       </c>
       <c r="AD2" t="n">
-        <v>338180.6588839253</v>
+        <v>384019.6272238815</v>
       </c>
       <c r="AE2" t="n">
-        <v>462713.6969626936</v>
+        <v>525432.5957179801</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.149586453949387e-06</v>
+        <v>4.92116670755178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.33958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>418552.9511473259</v>
+        <v>475286.046231935</v>
       </c>
     </row>
     <row r="3">
@@ -50806,28 +50806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.8459767298703</v>
+        <v>283.0166849797382</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.0090672037892</v>
+        <v>387.2359142042156</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.0362720181382</v>
+        <v>350.2786620415835</v>
       </c>
       <c r="AD3" t="n">
-        <v>244845.9767298703</v>
+        <v>283016.6849797382</v>
       </c>
       <c r="AE3" t="n">
-        <v>335009.0672037893</v>
+        <v>387235.9142042156</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.828085511519281e-06</v>
+        <v>5.981308101362804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.329166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>303036.2720181382</v>
+        <v>350278.6620415835</v>
       </c>
     </row>
     <row r="4">
@@ -50912,28 +50912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.1652403442356</v>
+        <v>253.4211999401205</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.3985742593093</v>
+        <v>346.7420659121958</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.3015875230817</v>
+        <v>313.6494897971853</v>
       </c>
       <c r="AD4" t="n">
-        <v>215165.2403442356</v>
+        <v>253421.1999401205</v>
       </c>
       <c r="AE4" t="n">
-        <v>294398.5742593093</v>
+        <v>346742.0659121958</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.064651630631575e-06</v>
+        <v>6.350937996122586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.785416666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>266301.5875230817</v>
+        <v>313649.4897971853</v>
       </c>
     </row>
     <row r="5">
@@ -51018,28 +51018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>203.0550176273366</v>
+        <v>233.8133988422734</v>
       </c>
       <c r="AB5" t="n">
-        <v>277.8288332727365</v>
+        <v>319.9138074150015</v>
       </c>
       <c r="AC5" t="n">
-        <v>251.3132393604846</v>
+        <v>289.3816826372574</v>
       </c>
       <c r="AD5" t="n">
-        <v>203055.0176273366</v>
+        <v>233813.3988422734</v>
       </c>
       <c r="AE5" t="n">
-        <v>277828.8332727365</v>
+        <v>319913.8074150016</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.179163346259844e-06</v>
+        <v>6.529860293006305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.545833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>251313.2393604846</v>
+        <v>289381.6826372574</v>
       </c>
     </row>
     <row r="6">
@@ -51124,28 +51124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>201.8788426405694</v>
+        <v>232.6372238555062</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.2195387666642</v>
+        <v>318.3045129089292</v>
       </c>
       <c r="AC6" t="n">
-        <v>249.8575336634123</v>
+        <v>287.9259769401851</v>
       </c>
       <c r="AD6" t="n">
-        <v>201878.8426405693</v>
+        <v>232637.2238555062</v>
       </c>
       <c r="AE6" t="n">
-        <v>276219.5387666642</v>
+        <v>318304.5129089292</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.193734447799369e-06</v>
+        <v>6.552627351741509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.516666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>249857.5336634123</v>
+        <v>287925.9769401851</v>
       </c>
     </row>
   </sheetData>
@@ -51421,28 +51421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.8905247918723</v>
+        <v>230.3493055876953</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.2895698663714</v>
+        <v>315.1740821990816</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.9707056546522</v>
+        <v>285.0943101436972</v>
       </c>
       <c r="AD2" t="n">
-        <v>193890.5247918722</v>
+        <v>230349.3055876952</v>
       </c>
       <c r="AE2" t="n">
-        <v>265289.5698663714</v>
+        <v>315174.0821990815</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.997020967357564e-06</v>
+        <v>6.513849673985409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.589583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>239970.7056546522</v>
+        <v>285094.3101436972</v>
       </c>
     </row>
     <row r="3">
@@ -51527,28 +51527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.6441316188926</v>
+        <v>204.0175715601439</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.378096817973</v>
+        <v>279.1458420284855</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.4865731919126</v>
+        <v>252.5045546490187</v>
       </c>
       <c r="AD3" t="n">
-        <v>167644.1316188926</v>
+        <v>204017.5715601439</v>
       </c>
       <c r="AE3" t="n">
-        <v>229378.096817973</v>
+        <v>279145.8420284855</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.292878531135458e-06</v>
+        <v>6.996001684470059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.929166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207486.5731919126</v>
+        <v>252504.5546490187</v>
       </c>
     </row>
   </sheetData>
@@ -51824,28 +51824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.8057769597611</v>
+        <v>933.3951968581804</v>
       </c>
       <c r="AB2" t="n">
-        <v>1175.055951873236</v>
+        <v>1277.112486831216</v>
       </c>
       <c r="AC2" t="n">
-        <v>1062.91026102784</v>
+        <v>1155.226663526677</v>
       </c>
       <c r="AD2" t="n">
-        <v>858805.7769597612</v>
+        <v>933395.1968581803</v>
       </c>
       <c r="AE2" t="n">
-        <v>1175055.951873236</v>
+        <v>1277112.486831216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.916755287403311e-06</v>
+        <v>2.831777469048175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>1062910.26102784</v>
+        <v>1155226.663526677</v>
       </c>
     </row>
     <row r="3">
@@ -51930,28 +51930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.2052684303633</v>
+        <v>484.6913361350204</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.4130011028973</v>
+        <v>663.1760691725447</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.5377953836285</v>
+        <v>599.883475904175</v>
       </c>
       <c r="AD3" t="n">
-        <v>443205.2684303633</v>
+        <v>484691.3361350204</v>
       </c>
       <c r="AE3" t="n">
-        <v>606413.0011028973</v>
+        <v>663176.0691725446</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.896597759120761e-06</v>
+        <v>4.279377928460455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.06666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>548537.7953836285</v>
+        <v>599883.4759041751</v>
       </c>
     </row>
     <row r="4">
@@ -52036,28 +52036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.1312712781215</v>
+        <v>405.6172494742275</v>
       </c>
       <c r="AB4" t="n">
-        <v>498.2204697006516</v>
+        <v>554.9834153007504</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.6710073292415</v>
+        <v>502.0165770685616</v>
       </c>
       <c r="AD4" t="n">
-        <v>364131.2712781215</v>
+        <v>405617.2494742275</v>
       </c>
       <c r="AE4" t="n">
-        <v>498220.4697006516</v>
+        <v>554983.4153007504</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.243266271805971e-06</v>
+        <v>4.791539334719229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.883333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>450671.0073292415</v>
+        <v>502016.5770685616</v>
       </c>
     </row>
     <row r="5">
@@ -52142,28 +52142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.6768102888266</v>
+        <v>378.9921962843404</v>
       </c>
       <c r="AB5" t="n">
-        <v>462.0243090866484</v>
+        <v>518.5538429119001</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.9293574826083</v>
+        <v>469.0637919392772</v>
       </c>
       <c r="AD5" t="n">
-        <v>337676.8102888266</v>
+        <v>378992.1962843403</v>
       </c>
       <c r="AE5" t="n">
-        <v>462024.3090866484</v>
+        <v>518553.8429119001</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.424063210290268e-06</v>
+        <v>5.058645261196839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.362499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>417929.3574826083</v>
+        <v>469063.7919392772</v>
       </c>
     </row>
     <row r="6">
@@ -52248,28 +52248,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>322.1314084912026</v>
+        <v>355.3202805566384</v>
       </c>
       <c r="AB6" t="n">
-        <v>440.7544045324143</v>
+        <v>486.1648834820418</v>
       </c>
       <c r="AC6" t="n">
-        <v>398.6894227665319</v>
+        <v>439.7659893392144</v>
       </c>
       <c r="AD6" t="n">
-        <v>322131.4084912026</v>
+        <v>355320.2805566384</v>
       </c>
       <c r="AE6" t="n">
-        <v>440754.4045324143</v>
+        <v>486164.8834820418</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.537465204897014e-06</v>
+        <v>5.226183191251308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>398689.4227665319</v>
+        <v>439765.9893392144</v>
       </c>
     </row>
     <row r="7">
@@ -52354,28 +52354,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>303.6052620527844</v>
+        <v>345.0058993943188</v>
       </c>
       <c r="AB7" t="n">
-        <v>415.406113659473</v>
+        <v>472.0522921373741</v>
       </c>
       <c r="AC7" t="n">
-        <v>375.7603371979542</v>
+        <v>427.0002839053355</v>
       </c>
       <c r="AD7" t="n">
-        <v>303605.2620527844</v>
+        <v>345005.8993943188</v>
       </c>
       <c r="AE7" t="n">
-        <v>415406.113659473</v>
+        <v>472052.2921373741</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.611014938169775e-06</v>
+        <v>5.334844155384327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.877083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>375760.3371979542</v>
+        <v>427000.2839053355</v>
       </c>
     </row>
     <row r="8">
@@ -52460,28 +52460,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>296.0489220727417</v>
+        <v>337.4495594142761</v>
       </c>
       <c r="AB8" t="n">
-        <v>405.0671959365862</v>
+        <v>461.7133744144872</v>
       </c>
       <c r="AC8" t="n">
-        <v>366.4081512717777</v>
+        <v>417.6480979791588</v>
       </c>
       <c r="AD8" t="n">
-        <v>296048.9220727417</v>
+        <v>337449.5594142761</v>
       </c>
       <c r="AE8" t="n">
-        <v>405067.1959365862</v>
+        <v>461713.3744144873</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.665023215112744e-06</v>
+        <v>5.41463494703849e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.745833333333332</v>
       </c>
       <c r="AH8" t="n">
-        <v>366408.1512717777</v>
+        <v>417648.0979791588</v>
       </c>
     </row>
     <row r="9">
@@ -52566,28 +52566,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>290.0893255993098</v>
+        <v>331.4899629408442</v>
       </c>
       <c r="AB9" t="n">
-        <v>396.9130131227961</v>
+        <v>453.5591916006972</v>
       </c>
       <c r="AC9" t="n">
-        <v>359.0321922212682</v>
+        <v>410.2721389286494</v>
       </c>
       <c r="AD9" t="n">
-        <v>290089.3255993098</v>
+        <v>331489.9629408442</v>
       </c>
       <c r="AE9" t="n">
-        <v>396913.0131227961</v>
+        <v>453559.1916006972</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.704106127772329e-06</v>
+        <v>5.472375291996205e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.654166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>359032.1922212683</v>
+        <v>410272.1389286494</v>
       </c>
     </row>
     <row r="10">
@@ -52672,28 +52672,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>284.5583329267936</v>
+        <v>317.8324563382501</v>
       </c>
       <c r="AB10" t="n">
-        <v>389.3452649380841</v>
+        <v>434.8723885403608</v>
       </c>
       <c r="AC10" t="n">
-        <v>352.186699301904</v>
+        <v>393.3687781252987</v>
       </c>
       <c r="AD10" t="n">
-        <v>284558.3329267937</v>
+        <v>317832.4563382501</v>
       </c>
       <c r="AE10" t="n">
-        <v>389345.2649380841</v>
+        <v>434872.3885403608</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.739803906264547e-06</v>
+        <v>5.525114504713485e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.570833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>352186.699301904</v>
+        <v>393368.7781252987</v>
       </c>
     </row>
     <row r="11">
@@ -52778,28 +52778,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>280.013473901237</v>
+        <v>313.2875973126934</v>
       </c>
       <c r="AB11" t="n">
-        <v>383.1267883142884</v>
+        <v>428.6539119165651</v>
       </c>
       <c r="AC11" t="n">
-        <v>346.5617053593965</v>
+        <v>387.7437841827913</v>
       </c>
       <c r="AD11" t="n">
-        <v>280013.473901237</v>
+        <v>313287.5973126934</v>
       </c>
       <c r="AE11" t="n">
-        <v>383126.7883142884</v>
+        <v>428653.911916565</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.765038542784908e-06</v>
+        <v>5.562395672323977e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.514583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>346561.7053593965</v>
+        <v>387743.7841827912</v>
       </c>
     </row>
     <row r="12">
@@ -52884,28 +52884,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>276.0127774784851</v>
+        <v>309.1163086893493</v>
       </c>
       <c r="AB12" t="n">
-        <v>377.6528589704096</v>
+        <v>422.9465707978393</v>
       </c>
       <c r="AC12" t="n">
-        <v>341.6102001493894</v>
+        <v>382.5811436901331</v>
       </c>
       <c r="AD12" t="n">
-        <v>276012.7774784851</v>
+        <v>309116.3086893493</v>
       </c>
       <c r="AE12" t="n">
-        <v>377652.8589704096</v>
+        <v>422946.5707978393</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.785810956993742e-06</v>
+        <v>5.593084438344809e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.466666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>341610.2001493894</v>
+        <v>382581.1436901331</v>
       </c>
     </row>
     <row r="13">
@@ -52990,28 +52990,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>272.6468429921222</v>
+        <v>305.7503742029863</v>
       </c>
       <c r="AB13" t="n">
-        <v>373.0474389116185</v>
+        <v>418.3411507390483</v>
       </c>
       <c r="AC13" t="n">
-        <v>337.4443149172617</v>
+        <v>378.4152584580054</v>
       </c>
       <c r="AD13" t="n">
-        <v>272646.8429921222</v>
+        <v>305750.3742029864</v>
       </c>
       <c r="AE13" t="n">
-        <v>373047.4389116185</v>
+        <v>418341.1507390483</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.800428581807366e-06</v>
+        <v>5.614680236655765e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.435416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>337444.3149172618</v>
+        <v>378415.2584580054</v>
       </c>
     </row>
     <row r="14">
@@ -53096,28 +53096,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>269.3557467654137</v>
+        <v>302.4592779762779</v>
       </c>
       <c r="AB14" t="n">
-        <v>368.5444158613176</v>
+        <v>413.8381276887474</v>
       </c>
       <c r="AC14" t="n">
-        <v>333.371054066849</v>
+        <v>374.3419976075927</v>
       </c>
       <c r="AD14" t="n">
-        <v>269355.7467654137</v>
+        <v>302459.2779762779</v>
       </c>
       <c r="AE14" t="n">
-        <v>368544.4158613177</v>
+        <v>413838.1276887474</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.81489233688611e-06</v>
+        <v>5.636048710773974e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.402083333333332</v>
       </c>
       <c r="AH14" t="n">
-        <v>333371.054066849</v>
+        <v>374341.9976075927</v>
       </c>
     </row>
     <row r="15">
@@ -53202,28 +53202,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>266.0166414794898</v>
+        <v>299.120172690354</v>
       </c>
       <c r="AB15" t="n">
-        <v>363.9757046981881</v>
+        <v>409.2694165256179</v>
       </c>
       <c r="AC15" t="n">
-        <v>329.2383742849021</v>
+        <v>370.2093178256458</v>
       </c>
       <c r="AD15" t="n">
-        <v>266016.6414794898</v>
+        <v>299120.172690354</v>
       </c>
       <c r="AE15" t="n">
-        <v>363975.7046981881</v>
+        <v>409269.4165256179</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.829202222229974e-06</v>
+        <v>5.657189860699436e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.370833333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>329238.3742849021</v>
+        <v>370209.3178256458</v>
       </c>
     </row>
     <row r="16">
@@ -53308,28 +53308,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>263.3246414795651</v>
+        <v>296.4281726904293</v>
       </c>
       <c r="AB16" t="n">
-        <v>360.2923915356329</v>
+        <v>405.5861033630626</v>
       </c>
       <c r="AC16" t="n">
-        <v>325.9065913610187</v>
+        <v>366.8775349017624</v>
       </c>
       <c r="AD16" t="n">
-        <v>263324.6414795651</v>
+        <v>296428.1726904293</v>
       </c>
       <c r="AE16" t="n">
-        <v>360292.3915356329</v>
+        <v>405586.1033630627</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.836434099769346e-06</v>
+        <v>5.667874097758541e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.356250000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>325906.5913610187</v>
+        <v>366877.5349017624</v>
       </c>
     </row>
     <row r="17">
@@ -53414,28 +53414,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>263.022506108467</v>
+        <v>296.1260373193311</v>
       </c>
       <c r="AB17" t="n">
-        <v>359.8789965916246</v>
+        <v>405.1727084190545</v>
       </c>
       <c r="AC17" t="n">
-        <v>325.5326502502632</v>
+        <v>366.5035937910069</v>
       </c>
       <c r="AD17" t="n">
-        <v>263022.506108467</v>
+        <v>296126.0373193311</v>
       </c>
       <c r="AE17" t="n">
-        <v>359878.9965916246</v>
+        <v>405172.7084190545</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.843973716778478e-06</v>
+        <v>5.679012983203139e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.339583333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>325532.6502502632</v>
+        <v>366503.5937910069</v>
       </c>
     </row>
   </sheetData>
@@ -53711,28 +53711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1346.042975096999</v>
+        <v>1439.7764454902</v>
       </c>
       <c r="AB2" t="n">
-        <v>1841.715381752718</v>
+        <v>1969.96565117356</v>
       </c>
       <c r="AC2" t="n">
-        <v>1665.94465058201</v>
+        <v>1781.954894289711</v>
       </c>
       <c r="AD2" t="n">
-        <v>1346042.975096999</v>
+        <v>1439776.4454902</v>
       </c>
       <c r="AE2" t="n">
-        <v>1841715.381752718</v>
+        <v>1969965.651173559</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.48659284733774e-06</v>
+        <v>2.158784071759283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.77916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1665944.65058201</v>
+        <v>1781954.894289711</v>
       </c>
     </row>
     <row r="3">
@@ -53817,28 +53817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>556.314690317149</v>
+        <v>607.4033360153684</v>
       </c>
       <c r="AB3" t="n">
-        <v>761.1743021639121</v>
+        <v>831.0760410801934</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.5288950802303</v>
+        <v>751.7593101420487</v>
       </c>
       <c r="AD3" t="n">
-        <v>556314.690317149</v>
+        <v>607403.3360153683</v>
       </c>
       <c r="AE3" t="n">
-        <v>761174.3021639121</v>
+        <v>831076.0410801934</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560688058400437e-06</v>
+        <v>3.718551857099823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>688528.8950802303</v>
+        <v>751759.3101420486</v>
       </c>
     </row>
     <row r="4">
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>441.887974378702</v>
+        <v>484.4476372362147</v>
       </c>
       <c r="AB4" t="n">
-        <v>604.6106212665023</v>
+        <v>662.8426295879619</v>
       </c>
       <c r="AC4" t="n">
-        <v>546.9074321491631</v>
+        <v>599.5818593255595</v>
       </c>
       <c r="AD4" t="n">
-        <v>441887.9743787021</v>
+        <v>484447.6372362147</v>
       </c>
       <c r="AE4" t="n">
-        <v>604610.6212665023</v>
+        <v>662842.6295879619</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.957320400972595e-06</v>
+        <v>4.294529055579384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>546907.4321491631</v>
+        <v>599581.8593255596</v>
       </c>
     </row>
     <row r="5">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>395.6459536562774</v>
+        <v>438.2908678598105</v>
       </c>
       <c r="AB5" t="n">
-        <v>541.3402484601063</v>
+        <v>599.6889014342154</v>
       </c>
       <c r="AC5" t="n">
-        <v>489.6754949228836</v>
+        <v>542.4554343499924</v>
       </c>
       <c r="AD5" t="n">
-        <v>395645.9536562773</v>
+        <v>438290.8678598105</v>
       </c>
       <c r="AE5" t="n">
-        <v>541340.2484601063</v>
+        <v>599688.9014342154</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.160752017424558e-06</v>
+        <v>4.58994614579021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.772916666666665</v>
       </c>
       <c r="AH5" t="n">
-        <v>489675.4949228836</v>
+        <v>542455.4343499924</v>
       </c>
     </row>
     <row r="6">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.7222382116614</v>
+        <v>417.1965602146025</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.7114978996059</v>
+        <v>570.8267390988678</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.7790321351735</v>
+        <v>516.3478362796313</v>
       </c>
       <c r="AD6" t="n">
-        <v>374722.2382116614</v>
+        <v>417196.5602146024</v>
       </c>
       <c r="AE6" t="n">
-        <v>512711.4978996058</v>
+        <v>570826.7390988679</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.287970914593496e-06</v>
+        <v>4.774689486461411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.395833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>463779.0321351734</v>
+        <v>516347.8362796313</v>
       </c>
     </row>
     <row r="7">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.1458027380573</v>
+        <v>395.2618236094349</v>
       </c>
       <c r="AB7" t="n">
-        <v>494.1356199345594</v>
+        <v>540.8146647833948</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.9760098917026</v>
+        <v>489.2000722146162</v>
       </c>
       <c r="AD7" t="n">
-        <v>361145.8027380573</v>
+        <v>395261.8236094349</v>
       </c>
       <c r="AE7" t="n">
-        <v>494135.6199345594</v>
+        <v>540814.6647833949</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.37515589307291e-06</v>
+        <v>4.901296810837479e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.152083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>446976.0098917026</v>
+        <v>489200.0722146162</v>
       </c>
     </row>
     <row r="8">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>352.4958476272381</v>
+        <v>386.6118684986156</v>
       </c>
       <c r="AB8" t="n">
-        <v>482.3003697428495</v>
+        <v>528.9794145916852</v>
       </c>
       <c r="AC8" t="n">
-        <v>436.2702993674116</v>
+        <v>478.4943616903252</v>
       </c>
       <c r="AD8" t="n">
-        <v>352495.8476272381</v>
+        <v>386611.8684986156</v>
       </c>
       <c r="AE8" t="n">
-        <v>482300.3697428495</v>
+        <v>528979.4145916852</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.430758557919473e-06</v>
+        <v>4.982041277914054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.004166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>436270.2993674115</v>
+        <v>478494.3616903252</v>
       </c>
     </row>
     <row r="9">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>335.6222581743613</v>
+        <v>378.1818315233228</v>
       </c>
       <c r="AB9" t="n">
-        <v>459.2131802431948</v>
+        <v>517.4450660951061</v>
       </c>
       <c r="AC9" t="n">
-        <v>415.3865188305299</v>
+        <v>468.0608352256998</v>
       </c>
       <c r="AD9" t="n">
-        <v>335622.2581743613</v>
+        <v>378181.8315233228</v>
       </c>
       <c r="AE9" t="n">
-        <v>459213.1802431948</v>
+        <v>517445.0660951061</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.485471580128493e-06</v>
+        <v>5.061493833517402e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.862499999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>415386.5188305299</v>
+        <v>468060.8352256998</v>
       </c>
     </row>
     <row r="10">
@@ -54559,28 +54559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>330.5154442734424</v>
+        <v>373.0750176224041</v>
       </c>
       <c r="AB10" t="n">
-        <v>452.2258121672289</v>
+        <v>510.4576980191403</v>
       </c>
       <c r="AC10" t="n">
-        <v>409.0660153569015</v>
+        <v>461.7403317520715</v>
       </c>
       <c r="AD10" t="n">
-        <v>330515.4442734424</v>
+        <v>373075.017622404</v>
       </c>
       <c r="AE10" t="n">
-        <v>452225.8121672289</v>
+        <v>510457.6980191403</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.517202167534265e-06</v>
+        <v>5.107572009395767e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.783333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>409066.0153569015</v>
+        <v>461740.3317520715</v>
       </c>
     </row>
     <row r="11">
@@ -54665,28 +54665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>325.7583862119756</v>
+        <v>368.3179595609371</v>
       </c>
       <c r="AB11" t="n">
-        <v>445.7169954609398</v>
+        <v>503.9488813128512</v>
       </c>
       <c r="AC11" t="n">
-        <v>403.178390981879</v>
+        <v>455.852707377049</v>
       </c>
       <c r="AD11" t="n">
-        <v>325758.3862119755</v>
+        <v>368317.9595609371</v>
       </c>
       <c r="AE11" t="n">
-        <v>445716.9954609398</v>
+        <v>503948.8813128512</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.545819005708631e-06</v>
+        <v>5.149128495117844e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.7125</v>
       </c>
       <c r="AH11" t="n">
-        <v>403178.390981879</v>
+        <v>455852.707377049</v>
       </c>
     </row>
     <row r="12">
@@ -54771,28 +54771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>321.2276221210817</v>
+        <v>363.7871954700433</v>
       </c>
       <c r="AB12" t="n">
-        <v>439.5178041485744</v>
+        <v>497.7496900004857</v>
       </c>
       <c r="AC12" t="n">
-        <v>397.5708417877461</v>
+        <v>450.2451581829161</v>
       </c>
       <c r="AD12" t="n">
-        <v>321227.6221210817</v>
+        <v>363787.1954700433</v>
       </c>
       <c r="AE12" t="n">
-        <v>439517.8041485744</v>
+        <v>497749.6900004856</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.574139296337147e-06</v>
+        <v>5.190254343682178e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.641666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>397570.8417877461</v>
+        <v>450245.1581829161</v>
       </c>
     </row>
     <row r="13">
@@ -54877,28 +54877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>316.9811623619522</v>
+        <v>359.5407357109139</v>
       </c>
       <c r="AB13" t="n">
-        <v>433.7076105655507</v>
+        <v>491.939496417462</v>
       </c>
       <c r="AC13" t="n">
-        <v>392.3151649256282</v>
+        <v>444.9894813207983</v>
       </c>
       <c r="AD13" t="n">
-        <v>316981.1623619522</v>
+        <v>359540.7357109138</v>
       </c>
       <c r="AE13" t="n">
-        <v>433707.6105655507</v>
+        <v>491939.496417462</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.597270004913318e-06</v>
+        <v>5.223844041986033e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.5875</v>
       </c>
       <c r="AH13" t="n">
-        <v>392315.1649256282</v>
+        <v>444989.4813207983</v>
       </c>
     </row>
     <row r="14">
@@ -54983,28 +54983,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>314.5819287214603</v>
+        <v>348.7832009388584</v>
       </c>
       <c r="AB14" t="n">
-        <v>430.4248732519116</v>
+        <v>477.2205627533965</v>
       </c>
       <c r="AC14" t="n">
-        <v>389.3457274538521</v>
+        <v>431.675302027478</v>
       </c>
       <c r="AD14" t="n">
-        <v>314581.9287214603</v>
+        <v>348783.2009388584</v>
       </c>
       <c r="AE14" t="n">
-        <v>430424.8732519116</v>
+        <v>477220.5627533965</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.608390537882631e-06</v>
+        <v>5.239992935401349e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.560416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>389345.7274538521</v>
+        <v>431675.3020274781</v>
       </c>
     </row>
     <row r="15">
@@ -55089,28 +55089,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>311.106796511233</v>
+        <v>345.3080687286312</v>
       </c>
       <c r="AB15" t="n">
-        <v>425.6700440498658</v>
+        <v>472.4657335513506</v>
       </c>
       <c r="AC15" t="n">
-        <v>385.0446924774048</v>
+        <v>427.3742670510307</v>
       </c>
       <c r="AD15" t="n">
-        <v>311106.796511233</v>
+        <v>345308.0687286312</v>
       </c>
       <c r="AE15" t="n">
-        <v>425670.0440498658</v>
+        <v>472465.7335513506</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.623069641402123e-06</v>
+        <v>5.261309474709564e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.527083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>385044.6924774048</v>
+        <v>427374.2670510307</v>
       </c>
     </row>
     <row r="16">
@@ -55195,28 +55195,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>308.3663276280011</v>
+        <v>342.3970076448071</v>
       </c>
       <c r="AB16" t="n">
-        <v>421.9204136228735</v>
+        <v>468.4826913495114</v>
       </c>
       <c r="AC16" t="n">
-        <v>381.6529215157253</v>
+        <v>423.7713608067002</v>
       </c>
       <c r="AD16" t="n">
-        <v>308366.3276280011</v>
+        <v>342397.0076448071</v>
       </c>
       <c r="AE16" t="n">
-        <v>421920.4136228735</v>
+        <v>468482.6913495114</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.637897018694541e-06</v>
+        <v>5.282841332596651e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.491666666666665</v>
       </c>
       <c r="AH16" t="n">
-        <v>381652.9215157253</v>
+        <v>423771.3608067002</v>
       </c>
     </row>
     <row r="17">
@@ -55301,28 +55301,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>305.5685583778415</v>
+        <v>339.5992383946475</v>
       </c>
       <c r="AB17" t="n">
-        <v>418.092382305937</v>
+        <v>464.6546600325748</v>
       </c>
       <c r="AC17" t="n">
-        <v>378.1902321350015</v>
+        <v>420.3086714259765</v>
       </c>
       <c r="AD17" t="n">
-        <v>305568.5583778415</v>
+        <v>339599.2383946475</v>
       </c>
       <c r="AE17" t="n">
-        <v>418092.382305937</v>
+        <v>464654.6600325748</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.649907194301398e-06</v>
+        <v>5.30028213748519e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.4625</v>
       </c>
       <c r="AH17" t="n">
-        <v>378190.2321350015</v>
+        <v>420308.6714259764</v>
       </c>
     </row>
     <row r="18">
@@ -55407,28 +55407,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>303.1661835231677</v>
+        <v>337.1968635399738</v>
       </c>
       <c r="AB18" t="n">
-        <v>414.8053470444739</v>
+        <v>461.3676247711118</v>
       </c>
       <c r="AC18" t="n">
-        <v>375.2169069055095</v>
+        <v>417.3353461964844</v>
       </c>
       <c r="AD18" t="n">
-        <v>303166.1835231677</v>
+        <v>337196.8635399738</v>
       </c>
       <c r="AE18" t="n">
-        <v>414805.3470444739</v>
+        <v>461367.6247711118</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.659989810860242e-06</v>
+        <v>5.314923800848409e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.439583333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>375216.9069055095</v>
+        <v>417335.3461964844</v>
       </c>
     </row>
     <row r="19">
@@ -55513,28 +55513,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>300.5148619263186</v>
+        <v>334.5455419431245</v>
       </c>
       <c r="AB19" t="n">
-        <v>411.1776918676113</v>
+        <v>457.7399695942491</v>
       </c>
       <c r="AC19" t="n">
-        <v>371.9354700472806</v>
+        <v>414.0539093382554</v>
       </c>
       <c r="AD19" t="n">
-        <v>300514.8619263186</v>
+        <v>334545.5419431246</v>
       </c>
       <c r="AE19" t="n">
-        <v>411177.6918676113</v>
+        <v>457739.9695942491</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.666958678187678e-06</v>
+        <v>5.32504377405534e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.424999999999999</v>
       </c>
       <c r="AH19" t="n">
-        <v>371935.4700472806</v>
+        <v>414053.9093382554</v>
       </c>
     </row>
     <row r="20">
@@ -55619,28 +55619,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>297.5463114907802</v>
+        <v>331.5769915075862</v>
       </c>
       <c r="AB20" t="n">
-        <v>407.1159901985052</v>
+        <v>453.6782679251432</v>
       </c>
       <c r="AC20" t="n">
-        <v>368.26141148484</v>
+        <v>410.3798507758149</v>
       </c>
       <c r="AD20" t="n">
-        <v>297546.3114907802</v>
+        <v>331576.9915075862</v>
       </c>
       <c r="AE20" t="n">
-        <v>407115.9901985052</v>
+        <v>453678.2679251432</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.67555855701728e-06</v>
+        <v>5.33753225162985e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.404166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>368261.41148484</v>
+        <v>410379.8507758148</v>
       </c>
     </row>
     <row r="21">
@@ -55725,28 +55725,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>295.0425162096622</v>
+        <v>329.0731962264682</v>
       </c>
       <c r="AB21" t="n">
-        <v>403.6901870352277</v>
+        <v>450.2524647618656</v>
       </c>
       <c r="AC21" t="n">
-        <v>365.1625621673207</v>
+        <v>407.2810014582956</v>
       </c>
       <c r="AD21" t="n">
-        <v>295042.5162096622</v>
+        <v>329073.1962264682</v>
       </c>
       <c r="AE21" t="n">
-        <v>403690.1870352277</v>
+        <v>450252.4647618656</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.683417066982261e-06</v>
+        <v>5.348944136310006e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>365162.5621673207</v>
+        <v>407281.0014582956</v>
       </c>
     </row>
     <row r="22">
@@ -55831,28 +55831,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>293.5380576027498</v>
+        <v>327.5687376195557</v>
       </c>
       <c r="AB22" t="n">
-        <v>401.6317203972206</v>
+        <v>448.1939981238585</v>
       </c>
       <c r="AC22" t="n">
-        <v>363.300552696169</v>
+        <v>405.4189919871438</v>
       </c>
       <c r="AD22" t="n">
-        <v>293538.0576027498</v>
+        <v>327568.7376195557</v>
       </c>
       <c r="AE22" t="n">
-        <v>401631.7203972206</v>
+        <v>448193.9981238585</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.688754922807531e-06</v>
+        <v>5.356695605149357e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.375</v>
       </c>
       <c r="AH22" t="n">
-        <v>363300.552696169</v>
+        <v>405418.9919871438</v>
       </c>
     </row>
     <row r="23">
@@ -55937,28 +55937,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>291.85678826977</v>
+        <v>325.887468286576</v>
       </c>
       <c r="AB23" t="n">
-        <v>399.3313335234695</v>
+        <v>445.8936112501074</v>
       </c>
       <c r="AC23" t="n">
-        <v>361.2197115170355</v>
+        <v>403.3381508080103</v>
       </c>
       <c r="AD23" t="n">
-        <v>291856.78826977</v>
+        <v>325887.468286576</v>
       </c>
       <c r="AE23" t="n">
-        <v>399331.3335234695</v>
+        <v>445893.6112501074</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.697354801637133e-06</v>
+        <v>5.369184082723867e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.354166666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>361219.7115170355</v>
+        <v>403338.1508080103</v>
       </c>
     </row>
     <row r="24">
@@ -56043,28 +56043,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>291.519302523846</v>
+        <v>325.549982540652</v>
       </c>
       <c r="AB24" t="n">
-        <v>398.869570637076</v>
+        <v>445.4318483637139</v>
       </c>
       <c r="AC24" t="n">
-        <v>360.8020186324311</v>
+        <v>402.920457923406</v>
       </c>
       <c r="AD24" t="n">
-        <v>291519.302523846</v>
+        <v>325549.982540652</v>
       </c>
       <c r="AE24" t="n">
-        <v>398869.570637076</v>
+        <v>445431.8483637139</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.696316885226665e-06</v>
+        <v>5.367676852671771e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.356250000000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>360802.0186324311</v>
+        <v>402920.457923406</v>
       </c>
     </row>
     <row r="25">
@@ -56149,28 +56149,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>292.586116300522</v>
+        <v>326.616796317328</v>
       </c>
       <c r="AB25" t="n">
-        <v>400.3292323108263</v>
+        <v>446.8915100374642</v>
       </c>
       <c r="AC25" t="n">
-        <v>362.1223722446867</v>
+        <v>404.2408115356615</v>
       </c>
       <c r="AD25" t="n">
-        <v>292586.116300522</v>
+        <v>326616.796317328</v>
       </c>
       <c r="AE25" t="n">
-        <v>400329.2323108263</v>
+        <v>446891.5100374642</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.695278968816195e-06</v>
+        <v>5.366169622619675e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.358333333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>362122.3722446867</v>
+        <v>404240.8115356615</v>
       </c>
     </row>
   </sheetData>
@@ -56446,28 +56446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.191556609423</v>
+        <v>192.5992842601359</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.0764225549598</v>
+        <v>263.5228376053388</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.5498306480309</v>
+        <v>238.3725878409877</v>
       </c>
       <c r="AD2" t="n">
-        <v>157191.556609423</v>
+        <v>192599.2842601359</v>
       </c>
       <c r="AE2" t="n">
-        <v>215076.4225549598</v>
+        <v>263522.8376053388</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229994134318391e-06</v>
+        <v>7.051148202911422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.383333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>194549.8306480309</v>
+        <v>238372.5878409877</v>
       </c>
     </row>
   </sheetData>
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.1423689859745</v>
+        <v>542.7977043494208</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.4756333862488</v>
+        <v>742.679765635532</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.8183097788877</v>
+        <v>671.7994511608737</v>
       </c>
       <c r="AD2" t="n">
-        <v>495142.3689859745</v>
+        <v>542797.7043494207</v>
       </c>
       <c r="AE2" t="n">
-        <v>677475.6333862487</v>
+        <v>742679.765635532</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.602508030658429e-06</v>
+        <v>3.960774204943335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>612818.3097788878</v>
+        <v>671799.4511608736</v>
       </c>
     </row>
     <row r="3">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.9700042750818</v>
+        <v>359.4545684208338</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.8511229944025</v>
+        <v>491.8215985297419</v>
       </c>
       <c r="AC3" t="n">
-        <v>386.1130509051296</v>
+        <v>444.8828354420114</v>
       </c>
       <c r="AD3" t="n">
-        <v>311970.0042750818</v>
+        <v>359454.5684208338</v>
       </c>
       <c r="AE3" t="n">
-        <v>426851.1229944025</v>
+        <v>491821.5985297419</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.417373756515589e-06</v>
+        <v>5.200923748939522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.956249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>386113.0509051296</v>
+        <v>444882.8354420114</v>
       </c>
     </row>
     <row r="4">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.075820943657</v>
+        <v>310.8460743554716</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.8438501713983</v>
+        <v>425.3133124941032</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.4012090322489</v>
+        <v>384.7220068806485</v>
       </c>
       <c r="AD4" t="n">
-        <v>279075.820943657</v>
+        <v>310846.0743554715</v>
       </c>
       <c r="AE4" t="n">
-        <v>381843.8501713984</v>
+        <v>425313.3124941032</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.695146622183531e-06</v>
+        <v>5.623668112534215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.206249999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>345401.2090322489</v>
+        <v>384722.0068806484</v>
       </c>
     </row>
     <row r="5">
@@ -57061,28 +57061,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.0801629827338</v>
+        <v>294.7075270072448</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.0119323353823</v>
+        <v>403.2318400297995</v>
       </c>
       <c r="AC5" t="n">
-        <v>315.7027233547212</v>
+        <v>364.7479591567966</v>
       </c>
       <c r="AD5" t="n">
-        <v>255080.1629827338</v>
+        <v>294707.5270072448</v>
       </c>
       <c r="AE5" t="n">
-        <v>349011.9323353823</v>
+        <v>403231.8400297995</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.839013697229655e-06</v>
+        <v>5.842620366694665e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.862499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>315702.7233547212</v>
+        <v>364747.9591567966</v>
       </c>
     </row>
     <row r="6">
@@ -57167,28 +57167,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>244.6623809433649</v>
+        <v>284.2897449678758</v>
       </c>
       <c r="AB6" t="n">
-        <v>334.7578633490184</v>
+        <v>388.9777710434282</v>
       </c>
       <c r="AC6" t="n">
-        <v>302.8090427066997</v>
+        <v>351.8542785087731</v>
       </c>
       <c r="AD6" t="n">
-        <v>244662.3809433649</v>
+        <v>284289.7449678758</v>
       </c>
       <c r="AE6" t="n">
-        <v>334757.8633490183</v>
+        <v>388977.7710434282</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.927358859091122e-06</v>
+        <v>5.97707345352872e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.6625</v>
       </c>
       <c r="AH6" t="n">
-        <v>302809.0427066997</v>
+        <v>351854.2785087731</v>
       </c>
     </row>
     <row r="7">
@@ -57273,28 +57273,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>236.8017464298471</v>
+        <v>268.6572511876852</v>
       </c>
       <c r="AB7" t="n">
-        <v>324.0025964209088</v>
+        <v>367.5887033964195</v>
       </c>
       <c r="AC7" t="n">
-        <v>293.0802433590937</v>
+        <v>332.5065534582498</v>
       </c>
       <c r="AD7" t="n">
-        <v>236801.7464298471</v>
+        <v>268657.2511876852</v>
       </c>
       <c r="AE7" t="n">
-        <v>324002.5964209089</v>
+        <v>367588.7033964195</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.985166968701029e-06</v>
+        <v>6.065051998333259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.5375</v>
       </c>
       <c r="AH7" t="n">
-        <v>293080.2433590937</v>
+        <v>332506.5534582498</v>
       </c>
     </row>
     <row r="8">
@@ -57379,28 +57379,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.0601064436352</v>
+        <v>261.745019000881</v>
       </c>
       <c r="AB8" t="n">
-        <v>314.7783871716131</v>
+        <v>358.1310823722719</v>
       </c>
       <c r="AC8" t="n">
-        <v>284.7363796942887</v>
+        <v>323.9515545107926</v>
       </c>
       <c r="AD8" t="n">
-        <v>230060.1064436352</v>
+        <v>261745.019000881</v>
       </c>
       <c r="AE8" t="n">
-        <v>314778.3871716131</v>
+        <v>358131.0823722719</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.030564297716719e-06</v>
+        <v>6.134142493970722e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.441666666666668</v>
       </c>
       <c r="AH8" t="n">
-        <v>284736.3796942887</v>
+        <v>323951.5545107925</v>
       </c>
     </row>
     <row r="9">
@@ -57485,28 +57485,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>226.7058284280394</v>
+        <v>258.3907409852852</v>
       </c>
       <c r="AB9" t="n">
-        <v>310.1889160103751</v>
+        <v>353.5416112110316</v>
       </c>
       <c r="AC9" t="n">
-        <v>280.5849212193147</v>
+        <v>319.8000960358177</v>
       </c>
       <c r="AD9" t="n">
-        <v>226705.8284280394</v>
+        <v>258390.7409852851</v>
       </c>
       <c r="AE9" t="n">
-        <v>310188.9160103751</v>
+        <v>353541.6112110316</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.050650166309992e-06</v>
+        <v>6.164711310385858e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.397916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>280584.9212193146</v>
+        <v>319800.0960358177</v>
       </c>
     </row>
     <row r="10">
@@ -57591,28 +57591,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>227.7193058480431</v>
+        <v>259.4042184052889</v>
       </c>
       <c r="AB10" t="n">
-        <v>311.5756005278917</v>
+        <v>354.9282957285488</v>
       </c>
       <c r="AC10" t="n">
-        <v>281.8392625127038</v>
+        <v>321.0544373292071</v>
       </c>
       <c r="AD10" t="n">
-        <v>227719.3058480431</v>
+        <v>259404.2184052889</v>
       </c>
       <c r="AE10" t="n">
-        <v>311575.6005278917</v>
+        <v>354928.2957285488</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.04836396988474e-06</v>
+        <v>6.161231932907712e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.404166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>281839.2625127038</v>
+        <v>321054.4373292071</v>
       </c>
     </row>
   </sheetData>
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>694.6956537653465</v>
+        <v>751.8592913451157</v>
       </c>
       <c r="AB2" t="n">
-        <v>950.513241290978</v>
+        <v>1028.727052109323</v>
       </c>
       <c r="AC2" t="n">
-        <v>859.7975915958791</v>
+        <v>930.5467860834942</v>
       </c>
       <c r="AD2" t="n">
-        <v>694695.6537653465</v>
+        <v>751859.2913451158</v>
       </c>
       <c r="AE2" t="n">
-        <v>950513.241290978</v>
+        <v>1028727.052109323</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.164484246323515e-06</v>
+        <v>3.231381678377123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>859797.5915958791</v>
+        <v>930546.7860834942</v>
       </c>
     </row>
     <row r="3">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.6674572787858</v>
+        <v>436.5794433424013</v>
       </c>
       <c r="AB3" t="n">
-        <v>530.4237177300042</v>
+        <v>597.347254906775</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.8008225642153</v>
+        <v>540.3372712806095</v>
       </c>
       <c r="AD3" t="n">
-        <v>387667.4572787858</v>
+        <v>436579.4433424013</v>
       </c>
       <c r="AE3" t="n">
-        <v>530423.7177300042</v>
+        <v>597347.254906775</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.087223989308386e-06</v>
+        <v>4.60894970847775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.61041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>479800.8225642152</v>
+        <v>540337.2712806094</v>
       </c>
     </row>
     <row r="4">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.0549011179972</v>
+        <v>370.8860068831531</v>
       </c>
       <c r="AB4" t="n">
-        <v>451.5956767042186</v>
+        <v>507.4625969533591</v>
       </c>
       <c r="AC4" t="n">
-        <v>408.4960191380802</v>
+        <v>459.0310789283578</v>
       </c>
       <c r="AD4" t="n">
-        <v>330054.9011179972</v>
+        <v>370886.0068831531</v>
       </c>
       <c r="AE4" t="n">
-        <v>451595.6767042187</v>
+        <v>507462.5969533591</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.410945429213966e-06</v>
+        <v>5.092236907996781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.602083333333335</v>
       </c>
       <c r="AH4" t="n">
-        <v>408496.0191380802</v>
+        <v>459031.0789283578</v>
       </c>
     </row>
     <row r="5">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.6283067638177</v>
+        <v>341.2932808844935</v>
       </c>
       <c r="AB5" t="n">
-        <v>422.2788650342015</v>
+        <v>466.9725237030623</v>
       </c>
       <c r="AC5" t="n">
-        <v>381.9771628274461</v>
+        <v>422.4053214408946</v>
       </c>
       <c r="AD5" t="n">
-        <v>308628.3067638177</v>
+        <v>341293.2808844935</v>
       </c>
       <c r="AE5" t="n">
-        <v>422278.8650342015</v>
+        <v>466972.5237030623</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.57382809640298e-06</v>
+        <v>5.335406183713981e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.164583333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>381977.1628274461</v>
+        <v>422405.3214408946</v>
       </c>
     </row>
     <row r="6">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>287.2565211239279</v>
+        <v>328.0022860345123</v>
       </c>
       <c r="AB6" t="n">
-        <v>393.0370450650655</v>
+        <v>448.7871981920082</v>
       </c>
       <c r="AC6" t="n">
-        <v>355.5261411150122</v>
+        <v>405.9555778733508</v>
       </c>
       <c r="AD6" t="n">
-        <v>287256.521123928</v>
+        <v>328002.2860345123</v>
       </c>
       <c r="AE6" t="n">
-        <v>393037.0450650654</v>
+        <v>448787.1981920082</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.677909491846154e-06</v>
+        <v>5.49079041201976e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>355526.1411150122</v>
+        <v>405955.5778733508</v>
       </c>
     </row>
     <row r="7">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.1258317736618</v>
+        <v>318.8715966842461</v>
       </c>
       <c r="AB7" t="n">
-        <v>380.5440330784467</v>
+        <v>436.2941862053893</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.2254446583438</v>
+        <v>394.6548814166825</v>
       </c>
       <c r="AD7" t="n">
-        <v>278125.8317736618</v>
+        <v>318871.5966842461</v>
       </c>
       <c r="AE7" t="n">
-        <v>380544.0330784466</v>
+        <v>436294.1862053893</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.748502462471508e-06</v>
+        <v>5.596179412789087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.737499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>344225.4446583438</v>
+        <v>394654.8814166825</v>
       </c>
     </row>
     <row r="8">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>270.6897324613786</v>
+        <v>311.4354973719629</v>
       </c>
       <c r="AB8" t="n">
-        <v>370.3696339418321</v>
+        <v>426.1197870687748</v>
       </c>
       <c r="AC8" t="n">
-        <v>335.022075895469</v>
+        <v>385.4515126538076</v>
       </c>
       <c r="AD8" t="n">
-        <v>270689.7324613786</v>
+        <v>311435.4973719629</v>
       </c>
       <c r="AE8" t="n">
-        <v>370369.6339418322</v>
+        <v>426119.7870687748</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.801329273451729e-06</v>
+        <v>5.675045123832504e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.616666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>335022.0758954689</v>
+        <v>385451.5126538076</v>
       </c>
     </row>
     <row r="9">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>265.5512028897244</v>
+        <v>298.3014283564208</v>
       </c>
       <c r="AB9" t="n">
-        <v>363.3388710859697</v>
+        <v>408.1491744074797</v>
       </c>
       <c r="AC9" t="n">
-        <v>328.6623191788324</v>
+        <v>369.1959900429932</v>
       </c>
       <c r="AD9" t="n">
-        <v>265551.2028897245</v>
+        <v>298301.4283564208</v>
       </c>
       <c r="AE9" t="n">
-        <v>363338.8710859697</v>
+        <v>408149.1744074798</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.832773803797099e-06</v>
+        <v>5.721988999453585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.545833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>328662.3191788324</v>
+        <v>369195.9900429932</v>
       </c>
     </row>
     <row r="10">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>260.2510133873926</v>
+        <v>292.8306466534968</v>
       </c>
       <c r="AB10" t="n">
-        <v>356.0869179810212</v>
+        <v>400.6638095276842</v>
       </c>
       <c r="AC10" t="n">
-        <v>322.10248230004</v>
+        <v>362.4250178815497</v>
       </c>
       <c r="AD10" t="n">
-        <v>260251.0133873926</v>
+        <v>292830.6466534968</v>
       </c>
       <c r="AE10" t="n">
-        <v>356086.9179810212</v>
+        <v>400663.8095276842</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.864532779445922e-06</v>
+        <v>5.769402313830877e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.475</v>
       </c>
       <c r="AH10" t="n">
-        <v>322102.48230004</v>
+        <v>362425.0178815497</v>
       </c>
     </row>
     <row r="11">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>255.9966501680201</v>
+        <v>288.5762834341274</v>
       </c>
       <c r="AB11" t="n">
-        <v>350.2659105348514</v>
+        <v>394.8428020816843</v>
       </c>
       <c r="AC11" t="n">
-        <v>316.8370236348027</v>
+        <v>357.1595592163609</v>
       </c>
       <c r="AD11" t="n">
-        <v>255996.6501680201</v>
+        <v>288576.2834341275</v>
       </c>
       <c r="AE11" t="n">
-        <v>350265.9105348514</v>
+        <v>394842.8020816843</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.885600614777319e-06</v>
+        <v>5.800854710497001e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.429166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>316837.0236348027</v>
+        <v>357159.5592163609</v>
       </c>
     </row>
     <row r="12">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>251.463339018907</v>
+        <v>284.0429722850143</v>
       </c>
       <c r="AB12" t="n">
-        <v>344.0632342250651</v>
+        <v>388.6401257718948</v>
       </c>
       <c r="AC12" t="n">
-        <v>311.2263220465096</v>
+        <v>351.5488576280668</v>
       </c>
       <c r="AD12" t="n">
-        <v>251463.339018907</v>
+        <v>284042.9722850143</v>
       </c>
       <c r="AE12" t="n">
-        <v>344063.2342250651</v>
+        <v>388640.1257718948</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.909184012536347e-06</v>
+        <v>5.836062617212812e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.379166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>311226.3220465096</v>
+        <v>351548.8576280668</v>
       </c>
     </row>
     <row r="13">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>249.4850093794015</v>
+        <v>282.0646426455088</v>
       </c>
       <c r="AB13" t="n">
-        <v>341.3563963345511</v>
+        <v>385.9332878813795</v>
       </c>
       <c r="AC13" t="n">
-        <v>308.7778209651945</v>
+        <v>349.1003565467514</v>
       </c>
       <c r="AD13" t="n">
-        <v>249485.0093794015</v>
+        <v>282064.6426455088</v>
       </c>
       <c r="AE13" t="n">
-        <v>341356.396334551</v>
+        <v>385933.2878813795</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.911699574963976e-06</v>
+        <v>5.839818127262499e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.372916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>308777.8209651945</v>
+        <v>349100.3565467513</v>
       </c>
     </row>
     <row r="14">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>249.8930150868872</v>
+        <v>282.4726483529945</v>
       </c>
       <c r="AB14" t="n">
-        <v>341.9146477434742</v>
+        <v>386.4915392903028</v>
       </c>
       <c r="AC14" t="n">
-        <v>309.282793643161</v>
+        <v>349.6053292247179</v>
       </c>
       <c r="AD14" t="n">
-        <v>249893.0150868872</v>
+        <v>282472.6483529945</v>
       </c>
       <c r="AE14" t="n">
-        <v>341914.6477434742</v>
+        <v>386491.5392903028</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.916573477167508e-06</v>
+        <v>5.847094427983766e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.362499999999999</v>
       </c>
       <c r="AH14" t="n">
-        <v>309282.793643161</v>
+        <v>349605.3292247179</v>
       </c>
     </row>
   </sheetData>
